--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/C678CE1D-02F7-41D6-8DFC-1FC5EDC1DF7E/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/7F7A7800-FC1F-43BF-848A-6ECE0A3187E8/192.168.10.18/disk6/pzhou/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCBF299-BACE-1645-AB6D-CB8333F9E004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021F20D6-822B-484E-BF67-77945F076D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="10420" windowWidth="23760" windowHeight="16720" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
@@ -1113,7 +1113,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1215,7 +1215,7 @@
         <v>132</v>
       </c>
       <c r="D2" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>197</v>
@@ -1283,7 +1283,7 @@
         <v>132</v>
       </c>
       <c r="D3" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>193</v>
@@ -1333,7 +1333,7 @@
         <v>132</v>
       </c>
       <c r="D4" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>189</v>
@@ -1393,7 +1393,7 @@
         <v>132</v>
       </c>
       <c r="D5" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>185</v>
@@ -1443,7 +1443,7 @@
         <v>132</v>
       </c>
       <c r="D6" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>181</v>
@@ -1493,7 +1493,7 @@
         <v>132</v>
       </c>
       <c r="D7" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>177</v>
@@ -1543,7 +1543,7 @@
         <v>132</v>
       </c>
       <c r="D8" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>173</v>
@@ -1609,7 +1609,7 @@
         <v>132</v>
       </c>
       <c r="D9" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>169</v>
@@ -1659,7 +1659,7 @@
         <v>132</v>
       </c>
       <c r="D10" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>165</v>
@@ -1709,7 +1709,7 @@
         <v>132</v>
       </c>
       <c r="D11" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>161</v>
@@ -1759,7 +1759,7 @@
         <v>132</v>
       </c>
       <c r="D12" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>157</v>
@@ -1809,7 +1809,7 @@
         <v>132</v>
       </c>
       <c r="D13" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>153</v>
@@ -1859,7 +1859,7 @@
         <v>132</v>
       </c>
       <c r="D14" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>149</v>
@@ -1909,7 +1909,7 @@
         <v>132</v>
       </c>
       <c r="D15" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>145</v>
@@ -1959,7 +1959,7 @@
         <v>132</v>
       </c>
       <c r="D16" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>141</v>
@@ -2019,7 +2019,7 @@
         <v>132</v>
       </c>
       <c r="D17" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>137</v>
@@ -2137,7 +2137,7 @@
         <v>132</v>
       </c>
       <c r="D19" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>131</v>

--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/AD730DAF-CF12-4F99-8E16-18818EE32413/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/27B73226-F49C-4A00-B633-F00719A757A9/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8537681A-84F3-E947-ACF2-D56119609579}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2A0114-D1D1-7447-B7C7-F3FEF6F99B94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24820" yWindow="10580" windowWidth="23760" windowHeight="16720" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
+    <workbookView xWindow="10700" yWindow="860" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>https://download.maizegdb.org/Zm-B73-REFERENCE-NAM-5.0/Zm-B73-REFERENCE-NAM-5.0_Zm00001e.1.gff3.gz</t>
-  </si>
-  <si>
     <t>https://download.maizegdb.org/Zm-B73-REFERENCE-NAM-5.0/Zm-B73-REFERENCE-NAM-5.0.fa.gz</t>
   </si>
   <si>
@@ -635,75 +632,6 @@
     <t>BxM</t>
   </si>
   <si>
-    <t>https://download.maizegdb.org/Zm-B97-REFERENCE-NAM-1.0/Zm-B97-REFERENCE-NAM-1.0_Zm00018a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-CML52-REFERENCE-NAM-1.0/Zm-CML52-REFERENCE-NAM-1.0_Zm00019a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-CML69-REFERENCE-NAM-1.0/Zm-CML69-REFERENCE-NAM-1.0_Zm00020a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-CML103-REFERENCE-NAM-1.0/Zm-CML103-REFERENCE-NAM-1.0_Zm00021a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-CML247-REFERENCE-NAM-1.0/Zm-CML247-REFERENCE-NAM-1.0_Zm00023a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-CML277-REFERENCE-NAM-1.0/Zm-CML277-REFERENCE-NAM-1.0_Zm00024a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-CML322-REFERENCE-NAM-1.0/Zm-CML322-REFERENCE-NAM-1.0_Zm00025a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-CML333-REFERENCE-NAM-1.0/Zm-CML333-REFERENCE-NAM-1.0_Zm00026a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-HP301-REFERENCE-NAM-1.0/Zm-HP301-REFERENCE-NAM-1.0_Zm00027a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-Il14H-REFERENCE-NAM-1.0/Zm-Il14H-REFERENCE-NAM-1.0_Zm00028a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-Ki3-REFERENCE-NAM-1.0/Zm-Ki3-REFERENCE-NAM-1.0_Zm00029a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-Ki11-REFERENCE-NAM-1.0/Zm-Ki11-REFERENCE-NAM-1.0_Zm00030a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-Ky21-REFERENCE-NAM-1.0/Zm-Ky21-REFERENCE-NAM-1.0_Zm00031a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-M37W-REFERENCE-NAM-1.0/Zm-M37W-REFERENCE-NAM-1.0_Zm00032a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-M162W-REFERENCE-NAM-1.0/Zm-M162W-REFERENCE-NAM-1.0_Zm00033a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-Mo18W-REFERENCE-NAM-1.0/Zm-Mo18W-REFERENCE-NAM-1.0_Zm00034a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-Ms71-REFERENCE-NAM-1.0/Zm-Ms71-REFERENCE-NAM-1.0_Zm00035a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-NC358-REFERENCE-NAM-1.0/Zm-NC358-REFERENCE-NAM-1.0_Zm00037a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-Oh7B-REFERENCE-NAM-1.0/Zm-Oh7B-REFERENCE-NAM-1.0_Zm00038a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-Oh43-REFERENCE-NAM-1.0/Zm-Oh43-REFERENCE-NAM-1.0_Zm00039a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-P39-REFERENCE-NAM-1.0/Zm-P39-REFERENCE-NAM-1.0_Zm00040a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-Tx303-REFERENCE-NAM-1.0/Zm-Tx303-REFERENCE-NAM-1.0_Zm00041a.1.gff3.gz</t>
-  </si>
-  <si>
-    <t>https://download.maizegdb.org/Zm-Tzi8-REFERENCE-NAM-1.0/Zm-Tzi8-REFERENCE-NAM-1.0_Zm00042a.1.gff3.gz</t>
-  </si>
-  <si>
     <t>https://download.maizegdb.org/Zm-B97-REFERENCE-NAM-1.0/Zm-B97-REFERENCE-NAM-1.0.fa.gz</t>
   </si>
   <si>
@@ -716,9 +644,6 @@
     <t>https://download.maizegdb.org/Zm-CML228-REFERENCE-NAM-1.0/Zm-CML228-REFERENCE-NAM-1.0.fa.gz</t>
   </si>
   <si>
-    <t>https://download.maizegdb.org/Zm-CML228-REFERENCE-NAM-1.0/Zm-CML228-REFERENCE-NAM-1.0_Zm00022a.1.gff3.gz</t>
-  </si>
-  <si>
     <t>https://download.maizegdb.org/Zm-CML247-REFERENCE-NAM-1.0/Zm-CML247-REFERENCE-NAM-1.0.fa.gz</t>
   </si>
   <si>
@@ -728,9 +653,6 @@
     <t>https://download.maizegdb.org/Zm-CML333-REFERENCE-NAM-1.0/Zm-CML333-REFERENCE-NAM-1.0.fa.gz</t>
   </si>
   <si>
-    <t>https://download.maizegdb.org/Zm-NC350-REFERENCE-NAM-1.0/Zm-NC350-REFERENCE-NAM-1.0_Zm00036a.1.gff3.gz</t>
-  </si>
-  <si>
     <t>Zmays_EP1</t>
   </si>
   <si>
@@ -813,6 +735,84 @@
   </si>
   <si>
     <t>phytozome</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-B73-REFERENCE-NAM-5.0/Zm-B73-REFERENCE-NAM-5.0_Zm00001eb.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-B97-REFERENCE-NAM-1.0/Zm-B97-REFERENCE-NAM-1.0_Zm00018ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-CML52-REFERENCE-NAM-1.0/Zm-CML52-REFERENCE-NAM-1.0_Zm00019ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-CML69-REFERENCE-NAM-1.0/Zm-CML69-REFERENCE-NAM-1.0_Zm00020ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-CML103-REFERENCE-NAM-1.0/Zm-CML103-REFERENCE-NAM-1.0_Zm00021ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-CML228-REFERENCE-NAM-1.0/Zm-CML228-REFERENCE-NAM-1.0_Zm00022ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-CML247-REFERENCE-NAM-1.0/Zm-CML247-REFERENCE-NAM-1.0_Zm00023ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-CML277-REFERENCE-NAM-1.0/Zm-CML277-REFERENCE-NAM-1.0_Zm00024ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-CML322-REFERENCE-NAM-1.0/Zm-CML322-REFERENCE-NAM-1.0_Zm00025ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-CML333-REFERENCE-NAM-1.0/Zm-CML333-REFERENCE-NAM-1.0_Zm00026ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-HP301-REFERENCE-NAM-1.0/Zm-HP301-REFERENCE-NAM-1.0_Zm00027ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-Il14H-REFERENCE-NAM-1.0/Zm-Il14H-REFERENCE-NAM-1.0_Zm00028ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-Ki3-REFERENCE-NAM-1.0/Zm-Ki3-REFERENCE-NAM-1.0_Zm00029ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-Ki11-REFERENCE-NAM-1.0/Zm-Ki11-REFERENCE-NAM-1.0_Zm00030ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-Ky21-REFERENCE-NAM-1.0/Zm-Ky21-REFERENCE-NAM-1.0_Zm00031ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-M37W-REFERENCE-NAM-1.0/Zm-M37W-REFERENCE-NAM-1.0_Zm00032ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-M162W-REFERENCE-NAM-1.0/Zm-M162W-REFERENCE-NAM-1.0_Zm00033ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-Mo18W-REFERENCE-NAM-1.0/Zm-Mo18W-REFERENCE-NAM-1.0_Zm00034ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-Ms71-REFERENCE-NAM-1.0/Zm-Ms71-REFERENCE-NAM-1.0_Zm00035ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-NC350-REFERENCE-NAM-1.0/Zm-NC350-REFERENCE-NAM-1.0_Zm00036ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-NC358-REFERENCE-NAM-1.0/Zm-NC358-REFERENCE-NAM-1.0_Zm00037ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-Oh7B-REFERENCE-NAM-1.0/Zm-Oh7B-REFERENCE-NAM-1.0_Zm00038ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-Oh43-REFERENCE-NAM-1.0/Zm-Oh43-REFERENCE-NAM-1.0_Zm00039ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-P39-REFERENCE-NAM-1.0/Zm-P39-REFERENCE-NAM-1.0_Zm00040ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-Tx303-REFERENCE-NAM-1.0/Zm-Tx303-REFERENCE-NAM-1.0_Zm00041ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>https://download.maizegdb.org/Zm-Tzi8-REFERENCE-NAM-1.0/Zm-Tzi8-REFERENCE-NAM-1.0_Zm00042ab.1.gff3.gz</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1239,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1258,111 +1258,111 @@
   <sheetData>
     <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1">
         <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="2">
         <v>10000</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>0</v>
@@ -1406,34 +1406,34 @@
     </row>
     <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1">
         <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2">
         <v>10000</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>0</v>
@@ -1459,34 +1459,34 @@
     </row>
     <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1">
         <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="2">
         <v>10000</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>0</v>
@@ -1522,34 +1522,34 @@
     </row>
     <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1">
         <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="2">
         <v>10000</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>0</v>
@@ -1575,34 +1575,34 @@
     </row>
     <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1">
         <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="2">
         <v>10000</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
@@ -1628,34 +1628,34 @@
     </row>
     <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1">
         <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="2">
         <v>10000</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>0</v>
@@ -1681,34 +1681,34 @@
     </row>
     <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1">
         <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="2">
         <v>10000</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>0</v>
@@ -1750,34 +1750,34 @@
     </row>
     <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1">
         <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="2">
         <v>10000</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>0</v>
@@ -1803,34 +1803,34 @@
     </row>
     <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1">
         <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="2">
         <v>10000</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>0</v>
@@ -1856,34 +1856,34 @@
     </row>
     <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1">
         <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="2">
         <v>10000</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>0</v>
@@ -1909,34 +1909,34 @@
     </row>
     <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1">
         <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="2">
         <v>10000</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>0</v>
@@ -1962,34 +1962,34 @@
     </row>
     <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1">
         <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="2">
         <v>10000</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>0</v>
@@ -2015,34 +2015,34 @@
     </row>
     <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1">
         <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="2">
         <v>10000</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>0</v>
@@ -2068,34 +2068,34 @@
     </row>
     <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1">
         <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="2">
         <v>10000</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>0</v>
@@ -2123,13 +2123,13 @@
     </row>
     <row r="16" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
@@ -2137,20 +2137,20 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2">
         <v>10000</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>0</v>
@@ -2178,13 +2178,13 @@
     </row>
     <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
@@ -2192,20 +2192,20 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="2">
         <v>10000</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>0</v>
@@ -2233,34 +2233,34 @@
     </row>
     <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="1">
         <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="2">
         <v>10000</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>0</v>
@@ -2286,34 +2286,34 @@
     </row>
     <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1">
         <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="2">
         <v>10000</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>0</v>
@@ -2349,34 +2349,34 @@
     </row>
     <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1">
         <v>48</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="2">
         <v>10000</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>0</v>
@@ -2402,22 +2402,22 @@
     </row>
     <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1">
         <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2429,7 +2429,7 @@
         <v>10000</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>0</v>
@@ -2473,22 +2473,22 @@
     </row>
     <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="1">
         <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2500,7 +2500,7 @@
         <v>10000</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>0</v>
@@ -2544,11 +2544,11 @@
     </row>
     <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>4</v>
@@ -2556,20 +2556,20 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="2">
         <v>10000</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>0</v>
@@ -2611,11 +2611,11 @@
     </row>
     <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>4</v>
@@ -2623,20 +2623,20 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="2">
         <v>10000</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>0</v>
@@ -2676,11 +2676,11 @@
     </row>
     <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>4</v>
@@ -2688,20 +2688,20 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="2">
         <v>10000</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>0</v>
@@ -2739,11 +2739,11 @@
     </row>
     <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>4</v>
@@ -2751,10 +2751,10 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>53</v>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>4</v>
@@ -2818,13 +2818,13 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="4" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="2">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>4</v>
@@ -2871,13 +2871,13 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="4" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="2">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>4</v>
@@ -2927,10 +2927,10 @@
         <v>48</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="2">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>4</v>
@@ -2977,13 +2977,13 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="4" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="2">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>4</v>
@@ -3030,13 +3030,13 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="2">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>4</v>
@@ -3083,13 +3083,13 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="4" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="2">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>4</v>
@@ -3136,13 +3136,13 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="4" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="2">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>4</v>
@@ -3192,10 +3192,10 @@
         <v>42</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="2">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>4</v>
@@ -3242,13 +3242,13 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="4" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="2">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>4</v>
@@ -3298,10 +3298,10 @@
         <v>39</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="2">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>4</v>
@@ -3351,10 +3351,10 @@
         <v>37</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="2">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>4</v>
@@ -3404,10 +3404,10 @@
         <v>35</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="2">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>4</v>
@@ -3457,10 +3457,10 @@
         <v>33</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="2">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>4</v>
@@ -3510,10 +3510,10 @@
         <v>31</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="2">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>4</v>
@@ -3563,10 +3563,10 @@
         <v>29</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="2">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>4</v>
@@ -3616,10 +3616,10 @@
         <v>27</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="2">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>4</v>
@@ -3669,10 +3669,10 @@
         <v>25</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="2">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>4</v>
@@ -3722,10 +3722,10 @@
         <v>23</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="2">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>4</v>
@@ -3775,10 +3775,10 @@
         <v>21</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="2">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>4</v>
@@ -3828,10 +3828,10 @@
         <v>19</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="2">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>4</v>
@@ -3881,10 +3881,10 @@
         <v>17</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="2">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>4</v>
@@ -3934,10 +3934,10 @@
         <v>15</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="2">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>4</v>
@@ -3987,10 +3987,10 @@
         <v>13</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="2">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
@@ -4040,10 +4040,10 @@
         <v>11</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="2">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>4</v>
@@ -4093,10 +4093,10 @@
         <v>9</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="2">
@@ -4131,11 +4131,11 @@
     </row>
     <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>4</v>
@@ -4143,13 +4143,13 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1">
@@ -4184,11 +4184,11 @@
     </row>
     <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>4</v>
@@ -4196,13 +4196,13 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="4" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="2">
@@ -4237,11 +4237,11 @@
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>4</v>
@@ -4249,13 +4249,13 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1">
@@ -4290,11 +4290,11 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>4</v>
@@ -4302,13 +4302,13 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>6</v>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>4</v>
@@ -4400,7 +4400,7 @@
         <v>2</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1">

--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/27B73226-F49C-4A00-B633-F00719A757A9/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/2E088761-3A02-43E3-B380-AA53C18E15AA/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2A0114-D1D1-7447-B7C7-F3FEF6F99B94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F2466C-178F-6A4D-B20A-9DC03AA3266F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10700" yWindow="860" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
+    <workbookView xWindow="5040" yWindow="2240" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="268">
   <si>
     <t>T</t>
   </si>
@@ -813,6 +813,30 @@
   </si>
   <si>
     <t>https://download.maizegdb.org/Zm-Tzi8-REFERENCE-NAM-1.0/Zm-Tzi8-REFERENCE-NAM-1.0_Zm00042ab.1.gff3.gz</t>
+  </si>
+  <si>
+    <t>Taestivum</t>
+  </si>
+  <si>
+    <t>Triticum aestivum</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>IWGSC</t>
+  </si>
+  <si>
+    <t>Aegilops tauschii</t>
+  </si>
+  <si>
+    <t>Atauschii</t>
+  </si>
+  <si>
+    <t>Aet</t>
+  </si>
+  <si>
+    <t>Aet_v4.0</t>
   </si>
 </sst>
 </file>
@@ -1233,13 +1257,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y58"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2401,28 +2425,28 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>76</v>
+      <c r="A21" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E21" s="1">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="2">
@@ -2440,24 +2464,18 @@
       <c r="O21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="S21" s="1"/>
       <c r="T21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U21" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2467,33 +2485,31 @@
       <c r="X21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E22" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="2">
@@ -2511,24 +2527,18 @@
       <c r="O22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="P22" s="1"/>
       <c r="Q22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="S22" s="1"/>
       <c r="T22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="U22" s="1"/>
       <c r="V22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2538,38 +2548,38 @@
       <c r="X22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E23" s="1">
+        <v>41</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="2">
         <v>10000</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>0</v>
@@ -2589,7 +2599,9 @@
       <c r="R23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S23" s="1"/>
+      <c r="S23" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="T23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2610,33 +2622,35 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E24" s="1">
+        <v>48</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="2">
         <v>10000</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>0</v>
@@ -2650,11 +2664,15 @@
       <c r="P24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="R24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S24" s="1"/>
+      <c r="S24" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="T24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2676,11 +2694,11 @@
     </row>
     <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>4</v>
@@ -2688,20 +2706,20 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="2">
         <v>10000</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>0</v>
@@ -2715,7 +2733,9 @@
       <c r="P25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q25" s="1"/>
+      <c r="Q25" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="R25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2723,7 +2743,9 @@
       <c r="T25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U25" s="1"/>
+      <c r="U25" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2738,12 +2760,12 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>55</v>
+      <c r="A26" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>4</v>
@@ -2751,20 +2773,20 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="2">
         <v>10000</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>0</v>
@@ -2778,9 +2800,7 @@
       <c r="P26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
         <v>0</v>
       </c>
@@ -2805,12 +2825,12 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
+      <c r="A27" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>4</v>
@@ -2818,20 +2838,20 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="4" t="s">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="2">
         <v>10000</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>0</v>
@@ -2839,31 +2859,41 @@
       <c r="N27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="O27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="T27" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
+      <c r="V27" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="W27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y27" s="1"/>
+      <c r="Y27" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>4</v>
@@ -2871,13 +2901,13 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="4" t="s">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="2">
@@ -2892,31 +2922,45 @@
       <c r="N28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="O28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="R28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
+      <c r="T28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="W28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y28" s="1"/>
+      <c r="Y28" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>4</v>
@@ -2924,10 +2968,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="4" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>165</v>
@@ -2965,11 +3009,11 @@
     </row>
     <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>4</v>
@@ -2977,10 +3021,10 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>165</v>
@@ -3018,11 +3062,11 @@
     </row>
     <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>4</v>
@@ -3030,10 +3074,10 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="4" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>165</v>
@@ -3071,11 +3115,11 @@
     </row>
     <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>4</v>
@@ -3083,10 +3127,10 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
@@ -3124,11 +3168,11 @@
     </row>
     <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>4</v>
@@ -3136,10 +3180,10 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>165</v>
@@ -3177,11 +3221,11 @@
     </row>
     <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>4</v>
@@ -3189,10 +3233,10 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="4" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>165</v>
@@ -3230,11 +3274,11 @@
     </row>
     <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>4</v>
@@ -3242,10 +3286,10 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>165</v>
@@ -3283,11 +3327,11 @@
     </row>
     <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>4</v>
@@ -3295,10 +3339,10 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>165</v>
@@ -3336,11 +3380,11 @@
     </row>
     <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>4</v>
@@ -3348,10 +3392,10 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="4" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>165</v>
@@ -3389,11 +3433,11 @@
     </row>
     <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>4</v>
@@ -3401,10 +3445,10 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>165</v>
@@ -3442,11 +3486,11 @@
     </row>
     <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>4</v>
@@ -3454,10 +3498,10 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>165</v>
@@ -3495,11 +3539,11 @@
     </row>
     <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>4</v>
@@ -3507,10 +3551,10 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>165</v>
@@ -3548,11 +3592,11 @@
     </row>
     <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>4</v>
@@ -3560,10 +3604,10 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>165</v>
@@ -3601,11 +3645,11 @@
     </row>
     <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>4</v>
@@ -3613,10 +3657,10 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>165</v>
@@ -3654,11 +3698,11 @@
     </row>
     <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>4</v>
@@ -3666,10 +3710,10 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>165</v>
@@ -3707,11 +3751,11 @@
     </row>
     <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>4</v>
@@ -3719,10 +3763,10 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>165</v>
@@ -3760,11 +3804,11 @@
     </row>
     <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>4</v>
@@ -3772,10 +3816,10 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>165</v>
@@ -3813,11 +3857,11 @@
     </row>
     <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>4</v>
@@ -3825,10 +3869,10 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>165</v>
@@ -3866,11 +3910,11 @@
     </row>
     <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>4</v>
@@ -3878,10 +3922,10 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>165</v>
@@ -3919,11 +3963,11 @@
     </row>
     <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>4</v>
@@ -3931,10 +3975,10 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>165</v>
@@ -3972,11 +4016,11 @@
     </row>
     <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>4</v>
@@ -3984,10 +4028,10 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>165</v>
@@ -4025,11 +4069,11 @@
     </row>
     <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
@@ -4037,10 +4081,10 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>165</v>
@@ -4078,11 +4122,11 @@
     </row>
     <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>4</v>
@@ -4090,10 +4134,10 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>165</v>
@@ -4130,29 +4174,29 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>206</v>
+      <c r="A52" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>209</v>
+      <c r="G52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J52" s="1"/>
-      <c r="K52" s="1">
+      <c r="K52" s="2">
         <v>10000</v>
       </c>
       <c r="L52" s="1" t="s">
@@ -4183,12 +4227,12 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>210</v>
+      <c r="A53" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>4</v>
@@ -4196,10 +4240,10 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="4" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>165</v>
@@ -4235,13 +4279,13 @@
       </c>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>214</v>
+    <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>4</v>
@@ -4249,10 +4293,10 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>165</v>
@@ -4288,30 +4332,30 @@
       </c>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>218</v>
+    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>221</v>
+      <c r="G55" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J55" s="1"/>
-      <c r="K55" s="1">
+      <c r="K55" s="2">
         <v>10000</v>
       </c>
       <c r="L55" s="1" t="s">
@@ -4343,50 +4387,64 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1">
+        <v>10000</v>
+      </c>
       <c r="L56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
+      <c r="R56" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="S56" s="1"/>
-      <c r="T56" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
+      <c r="W56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>4</v>
@@ -4394,10 +4452,10 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>165</v>
@@ -4407,7 +4465,7 @@
         <v>10000</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>0</v>
@@ -4415,22 +4473,16 @@
       <c r="N57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O57" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S57" s="1"/>
-      <c r="T57" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="V57" s="1"/>
       <c r="W57" s="1" t="s">
         <v>0</v>
       </c>
@@ -4440,18 +4492,28 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="L58" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -4459,20 +4521,108 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
+      <c r="T58" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1"/>
+    </row>
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="Y1:Y14 Y16:Y53">
+  <conditionalFormatting sqref="Y1:Y14 Y16:Y55">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y14 Y16:Y53">
+  <conditionalFormatting sqref="Y1:Y14 Y16:Y55">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"C"</formula>
     </cfRule>

--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/2E088761-3A02-43E3-B380-AA53C18E15AA/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/7B60334E-70AC-401B-A0EE-BC2945C48184/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F2466C-178F-6A4D-B20A-9DC03AA3266F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210BEE5A-5C36-FD44-9A23-A9F4D7A23AEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5040" yWindow="2240" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
@@ -1263,7 +1263,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>71</v>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>71</v>

--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/7B60334E-70AC-401B-A0EE-BC2945C48184/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/0E0C1038-F2B0-4005-A85B-3FA2B48391D4/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210BEE5A-5C36-FD44-9A23-A9F4D7A23AEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6454058-55A1-0145-A9AF-CA92B6170346}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2240" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
+    <workbookView xWindow="2480" yWindow="1820" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="329">
   <si>
     <t>T</t>
   </si>
@@ -56,9 +57,6 @@
     <t>local</t>
   </si>
   <si>
-    <t>Zmays_B73xMo17</t>
-  </si>
-  <si>
     <t>nam</t>
   </si>
   <si>
@@ -191,9 +189,6 @@
     <t>Zmays_B97</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -254,9 +249,6 @@
     <t>B73 RefGen_v4</t>
   </si>
   <si>
-    <t>ensembl_plants</t>
-  </si>
-  <si>
     <t>Zea mays</t>
   </si>
   <si>
@@ -629,9 +621,6 @@
     <t>B104</t>
   </si>
   <si>
-    <t>BxM</t>
-  </si>
-  <si>
     <t>https://download.maizegdb.org/Zm-B97-REFERENCE-NAM-1.0/Zm-B97-REFERENCE-NAM-1.0.fa.gz</t>
   </si>
   <si>
@@ -837,6 +826,201 @@
   </si>
   <si>
     <t>Aet_v4.0</t>
+  </si>
+  <si>
+    <t>Hordeum vulgare</t>
+  </si>
+  <si>
+    <t>Hvulgare</t>
+  </si>
+  <si>
+    <t>IBSC_v2</t>
+  </si>
+  <si>
+    <t>Hv</t>
+  </si>
+  <si>
+    <t>Triticum aestivum arinalrfor</t>
+  </si>
+  <si>
+    <t>Triticum aestivum cadenza</t>
+  </si>
+  <si>
+    <t>Triticum aestivum claire</t>
+  </si>
+  <si>
+    <t>Triticum aestivum jagger</t>
+  </si>
+  <si>
+    <t>Triticum aestivum julius</t>
+  </si>
+  <si>
+    <t>Triticum aestivum lancer</t>
+  </si>
+  <si>
+    <t>Triticum aestivum landmark</t>
+  </si>
+  <si>
+    <t>Triticum aestivum mace</t>
+  </si>
+  <si>
+    <t>Triticum aestivum mattis</t>
+  </si>
+  <si>
+    <t>Triticum aestivum norin61</t>
+  </si>
+  <si>
+    <t>Triticum aestivum paragon</t>
+  </si>
+  <si>
+    <t>Triticum aestivum robigus</t>
+  </si>
+  <si>
+    <t>Triticum aestivum stanley</t>
+  </si>
+  <si>
+    <t>Triticum aestivum weebil</t>
+  </si>
+  <si>
+    <t>Triticum dicoccoides</t>
+  </si>
+  <si>
+    <t>Triticum spelta</t>
+  </si>
+  <si>
+    <t>Triticum turgidum</t>
+  </si>
+  <si>
+    <t>Triticum urartu</t>
+  </si>
+  <si>
+    <t>Taestivum_arinalrfor</t>
+  </si>
+  <si>
+    <t>Taestivum_cadenza</t>
+  </si>
+  <si>
+    <t>Taestivum_claire</t>
+  </si>
+  <si>
+    <t>Taestivum_jagger</t>
+  </si>
+  <si>
+    <t>Taestivum_julius</t>
+  </si>
+  <si>
+    <t>Taestivum_lancer</t>
+  </si>
+  <si>
+    <t>Taestivum_landmark</t>
+  </si>
+  <si>
+    <t>Taestivum_mace</t>
+  </si>
+  <si>
+    <t>Taestivum_mattis</t>
+  </si>
+  <si>
+    <t>Taestivum_norin61</t>
+  </si>
+  <si>
+    <t>Taestivum_paragon</t>
+  </si>
+  <si>
+    <t>Taestivum_robigus</t>
+  </si>
+  <si>
+    <t>Taestivum_stanley</t>
+  </si>
+  <si>
+    <t>Taestivum_weebil</t>
+  </si>
+  <si>
+    <t>Tdicoccoides</t>
+  </si>
+  <si>
+    <t>Tspelta</t>
+  </si>
+  <si>
+    <t>Tturgidum</t>
+  </si>
+  <si>
+    <t>Turartu</t>
+  </si>
+  <si>
+    <t>arinalrfor</t>
+  </si>
+  <si>
+    <t>cadenza</t>
+  </si>
+  <si>
+    <t>claire</t>
+  </si>
+  <si>
+    <t>jagger</t>
+  </si>
+  <si>
+    <t>julius</t>
+  </si>
+  <si>
+    <t>lancer</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>mace</t>
+  </si>
+  <si>
+    <t>mattis</t>
+  </si>
+  <si>
+    <t>norin61</t>
+  </si>
+  <si>
+    <t>paragon</t>
+  </si>
+  <si>
+    <t>robigus</t>
+  </si>
+  <si>
+    <t>stanley</t>
+  </si>
+  <si>
+    <t>weebil</t>
+  </si>
+  <si>
+    <t>dicoccoides</t>
+  </si>
+  <si>
+    <t>spelta</t>
+  </si>
+  <si>
+    <t>turgidum</t>
+  </si>
+  <si>
+    <t>urartu</t>
+  </si>
+  <si>
+    <t>EIv1.1</t>
+  </si>
+  <si>
+    <t>PGSBv2.0</t>
+  </si>
+  <si>
+    <t>PGSBv2.1</t>
+  </si>
+  <si>
+    <t>WeebilV1</t>
+  </si>
+  <si>
+    <t>WEWSeq_v.1.0</t>
+  </si>
+  <si>
+    <t>Svevo.v1</t>
+  </si>
+  <si>
+    <t>ASM34745v1</t>
   </si>
 </sst>
 </file>
@@ -866,7 +1050,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -881,8 +1065,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFC6E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -898,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -907,11 +1121,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -923,24 +1142,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1257,19 +1460,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y60"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="Y16" sqref="Y16:Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" customWidth="1"/>
     <col min="7" max="8" width="10.5" customWidth="1"/>
@@ -1282,111 +1487,111 @@
   <sheetData>
     <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="2">
         <v>10000</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>0</v>
@@ -1425,46 +1630,44 @@
         <v>0</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2">
         <v>10000</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1473,114 +1676,100 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W3" s="1"/>
       <c r="X3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="2">
         <v>10000</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y4" s="1"/>
+      <c r="Y4" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="2">
         <v>10000</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1589,51 +1778,49 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y5" s="1"/>
+      <c r="Y5" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="2">
         <v>10000</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1642,51 +1829,49 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W6" s="1"/>
       <c r="X6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y6" s="1"/>
+      <c r="Y6" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="2">
         <v>10000</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1695,120 +1880,100 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W7" s="1"/>
       <c r="X7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y7" s="1"/>
+      <c r="Y7" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="2">
         <v>10000</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y8" s="1"/>
+      <c r="Y8" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="2">
         <v>10000</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1817,51 +1982,49 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y9" s="1"/>
+      <c r="Y9" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="2">
         <v>10000</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1870,51 +2033,49 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W10" s="1"/>
       <c r="X10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y10" s="1"/>
+      <c r="Y10" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="2">
         <v>10000</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1923,51 +2084,49 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W11" s="1"/>
       <c r="X11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y11" s="1"/>
+      <c r="Y11" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="2">
         <v>10000</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1976,51 +2135,49 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W12" s="1"/>
       <c r="X12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y12" s="1"/>
+      <c r="Y12" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="2">
         <v>10000</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2029,51 +2186,49 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y13" s="1"/>
+      <c r="Y13" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="2">
         <v>10000</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2082,78 +2237,74 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="2">
         <v>10000</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W15" s="1"/>
       <c r="X15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
@@ -2161,40 +2312,34 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2">
         <v>10000</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W16" s="1"/>
       <c r="X16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2202,13 +2347,13 @@
     </row>
     <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
@@ -2216,40 +2361,34 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="2">
         <v>10000</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W17" s="1"/>
       <c r="X17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2257,41 +2396,39 @@
     </row>
     <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="2">
         <v>10000</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2300,114 +2437,100 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W18" s="1"/>
       <c r="X18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y18" s="1"/>
+      <c r="Y18" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="2">
         <v>10000</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
       <c r="X19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y19" s="1"/>
+      <c r="Y19" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="2">
         <v>10000</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2416,1261 +2539,963 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W20" s="1"/>
       <c r="X20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y20" s="1"/>
+      <c r="Y20" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>265</v>
+      <c r="A21" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="2">
         <v>1000</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S21" s="1"/>
-      <c r="T21" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T21" s="5"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W21" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W21" s="1"/>
       <c r="X21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y21" s="1"/>
+      <c r="Y21" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>260</v>
+      <c r="A22" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="2">
         <v>1000</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S22" s="1"/>
-      <c r="T22" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T22" s="5"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W22" s="1"/>
       <c r="X22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y22" s="1"/>
+      <c r="Y22" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>76</v>
+      <c r="A23" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>72</v>
+        <v>323</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="2">
-        <v>10000</v>
+      <c r="K23" s="1">
+        <v>1000</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W23" s="1"/>
       <c r="X23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>75</v>
+      <c r="A24" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>167</v>
+        <v>305</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>72</v>
+        <v>322</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="2">
-        <v>10000</v>
+      <c r="K24" s="1">
+        <v>1000</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W24" s="1"/>
       <c r="X24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="1"/>
+      <c r="A25" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E25" s="1">
+        <v>50</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="2">
-        <v>10000</v>
+      <c r="K25" s="1">
+        <v>1000</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W25" s="1"/>
       <c r="X25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="1"/>
+      <c r="A26" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>169</v>
+        <v>307</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E26" s="1">
+        <v>50</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="2">
-        <v>10000</v>
+      <c r="K26" s="1">
+        <v>1000</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W26" s="1"/>
       <c r="X26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="1"/>
+      <c r="A27" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>170</v>
+        <v>308</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E27" s="1">
+        <v>50</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="2">
-        <v>10000</v>
+      <c r="K27" s="1">
+        <v>1000</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W27" s="1"/>
       <c r="X27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="1"/>
+      <c r="A28" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>171</v>
+        <v>309</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>234</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E28" s="1">
+        <v>50</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="2">
-        <v>10000</v>
+      <c r="K28" s="1">
+        <v>1000</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W28" s="1"/>
       <c r="X28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="1"/>
+      <c r="A29" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>235</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E29" s="1">
+        <v>50</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="2">
-        <v>10000</v>
+      <c r="K29" s="1">
+        <v>1000</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W29" s="1"/>
       <c r="X29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y29" s="1"/>
+      <c r="Y29" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="1">
         <v>50</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>236</v>
-      </c>
+      <c r="F30" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="2">
-        <v>10000</v>
+      <c r="K30" s="1">
+        <v>1000</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W30" s="1"/>
       <c r="X30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y30" s="1"/>
+      <c r="Y30" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="1"/>
+      <c r="A31" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>174</v>
+        <v>312</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>237</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E31" s="1">
+        <v>50</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="2">
-        <v>10000</v>
+      <c r="K31" s="1">
+        <v>1000</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W31" s="1"/>
       <c r="X31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y31" s="1"/>
+      <c r="Y31" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="1"/>
+      <c r="A32" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>175</v>
+        <v>313</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>238</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E32" s="1">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="2">
-        <v>10000</v>
+      <c r="K32" s="1">
+        <v>1000</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W32" s="1"/>
       <c r="X32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y32" s="1"/>
+      <c r="Y32" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="1"/>
+      <c r="A33" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>176</v>
+        <v>314</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>239</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E33" s="1">
+        <v>50</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="2">
-        <v>10000</v>
+      <c r="K33" s="1">
+        <v>1000</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W33" s="1"/>
       <c r="X33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y33" s="1"/>
+      <c r="Y33" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="1"/>
+      <c r="A34" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>177</v>
+        <v>315</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>240</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E34" s="1">
+        <v>50</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="2">
-        <v>10000</v>
+      <c r="K34" s="1">
+        <v>1000</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W34" s="1"/>
       <c r="X34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y34" s="1"/>
+      <c r="Y34" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="1"/>
+      <c r="A35" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>241</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E35" s="1">
+        <v>50</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="2">
-        <v>10000</v>
+      <c r="K35" s="1">
+        <v>1000</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W35" s="1"/>
       <c r="X35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y35" s="1"/>
+      <c r="Y35" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1"/>
+      <c r="A36" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>242</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E36" s="1">
+        <v>50</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="2">
-        <v>10000</v>
+      <c r="K36" s="1">
+        <v>1000</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W36" s="1"/>
       <c r="X36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y36" s="1"/>
+      <c r="Y36" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="1"/>
+      <c r="A37" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>180</v>
+        <v>318</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>243</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E37" s="1">
+        <v>50</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="2">
-        <v>10000</v>
+      <c r="K37" s="1">
+        <v>1000</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W37" s="1"/>
       <c r="X37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y37" s="1"/>
+      <c r="Y37" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="1"/>
+      <c r="A38" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>244</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E38" s="1">
+        <v>50</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="2">
-        <v>10000</v>
+      <c r="K38" s="1">
+        <v>1000</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W38" s="1"/>
       <c r="X38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y38" s="1"/>
+      <c r="Y38" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1"/>
+      <c r="A39" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="C39" s="1" t="s">
-        <v>182</v>
+        <v>320</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>245</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E39" s="1">
+        <v>50</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="2">
-        <v>10000</v>
+      <c r="K39" s="1">
+        <v>1000</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W39" s="1"/>
       <c r="X39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y39" s="1"/>
+      <c r="Y39" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1"/>
+      <c r="A40" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="C40" s="1" t="s">
-        <v>183</v>
+        <v>321</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>246</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E40" s="1">
+        <v>50</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="2">
-        <v>10000</v>
+      <c r="K40" s="1">
+        <v>1000</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W40" s="1"/>
       <c r="X40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y40" s="1"/>
+      <c r="Y40" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="A41" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>247</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E41" s="1">
+        <v>50</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>165</v>
+        <v>267</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="2">
         <v>10000</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
+      <c r="T41" s="5"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W41" s="1"/>
       <c r="X41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y41" s="1"/>
+      <c r="Y41" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="1"/>
+      <c r="A42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>248</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E42" s="1">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="2">
         <v>10000</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>0</v>
@@ -3678,52 +3503,66 @@
       <c r="N42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="O42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="S42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1"/>
       <c r="X42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y42" s="1"/>
+      <c r="Y42" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C43" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>249</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E43" s="1">
+        <v>50</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="2">
         <v>10000</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>0</v>
@@ -3731,31 +3570,43 @@
       <c r="N43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="O43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="S43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1"/>
       <c r="X43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y43" s="1"/>
+      <c r="Y43" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>28</v>
+      <c r="A44" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>4</v>
@@ -3763,27 +3614,25 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="4" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>250</v>
+        <v>66</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="2">
         <v>10000</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -3794,21 +3643,21 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W44" s="1"/>
       <c r="X44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y44" s="1"/>
+      <c r="Y44" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>26</v>
+      <c r="A45" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>4</v>
@@ -3816,27 +3665,25 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="4" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>251</v>
+        <v>61</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="2">
         <v>10000</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -3847,21 +3694,21 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W45" s="1"/>
       <c r="X45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y45" s="1"/>
+      <c r="Y45" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>24</v>
+      <c r="A46" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>4</v>
@@ -3869,27 +3716,25 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="4" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>252</v>
+        <v>56</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="2">
         <v>10000</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N46" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -3900,21 +3745,21 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W46" s="1"/>
       <c r="X46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y46" s="1"/>
+      <c r="Y46" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>4</v>
@@ -3922,20 +3767,20 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="4" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="2">
         <v>10000</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>0</v>
@@ -3943,31 +3788,43 @@
       <c r="N47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="O47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="S47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1"/>
       <c r="X47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y47" s="1"/>
+      <c r="Y47" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>4</v>
@@ -3975,27 +3832,25 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="4" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="2">
         <v>10000</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -4006,21 +3861,21 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W48" s="1"/>
       <c r="X48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y48" s="1"/>
+      <c r="Y48" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>4</v>
@@ -4028,27 +3883,25 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="4" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="2">
         <v>10000</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -4059,21 +3912,21 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W49" s="1"/>
       <c r="X49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y49" s="1"/>
+      <c r="Y49" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
@@ -4081,27 +3934,25 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="4" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="2">
         <v>10000</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -4112,21 +3963,21 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W50" s="1"/>
       <c r="X50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y50" s="1"/>
+      <c r="Y50" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>4</v>
@@ -4134,27 +3985,25 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="4" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="2">
         <v>10000</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -4165,21 +4014,21 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-      <c r="W51" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W51" s="1"/>
       <c r="X51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y51" s="1"/>
+      <c r="Y51" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>4</v>
@@ -4187,27 +4036,25 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="4" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="2">
         <v>10000</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -4218,21 +4065,21 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
-      <c r="W52" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W52" s="1"/>
       <c r="X52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y52" s="1"/>
+      <c r="Y52" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>4</v>
@@ -4240,27 +4087,25 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="4" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="2">
         <v>10000</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N53" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -4271,49 +4116,47 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-      <c r="W53" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W53" s="1"/>
       <c r="X53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y53" s="1"/>
+      <c r="Y53" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>206</v>
+      <c r="A54" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>209</v>
+      <c r="G54" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J54" s="1"/>
-      <c r="K54" s="1">
+      <c r="K54" s="2">
         <v>10000</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -4324,21 +4167,21 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-      <c r="W54" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W54" s="1"/>
       <c r="X54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y54" s="1"/>
+      <c r="Y54" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>210</v>
+      <c r="A55" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>4</v>
@@ -4346,27 +4189,25 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="4" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="2">
         <v>10000</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N55" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -4377,49 +4218,47 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W55" s="1"/>
       <c r="X55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y55" s="1"/>
-    </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>217</v>
+      <c r="G56" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="1">
+      <c r="K56" s="2">
         <v>10000</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -4430,49 +4269,47 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W56" s="1"/>
       <c r="X56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y56" s="1"/>
-    </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>221</v>
+      <c r="G57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J57" s="1"/>
-      <c r="K57" s="1">
+      <c r="K57" s="2">
         <v>10000</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N57" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -4483,160 +4320,1082 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
-      <c r="W57" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W57" s="1"/>
       <c r="X57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y57" s="1"/>
-    </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1"/>
+      <c r="G58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="2">
+        <v>10000</v>
+      </c>
       <c r="L58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M58" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
+      <c r="R58" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="S58" s="1"/>
-      <c r="T58" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-    </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>2</v>
+      <c r="G59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J59" s="1"/>
-      <c r="K59" s="1">
+      <c r="K59" s="2">
         <v>10000</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S59" s="1"/>
-      <c r="T59" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T59" s="1"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
       <c r="X59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y59" s="1"/>
-    </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
+      <c r="Y59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="G60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="K60" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
+      <c r="R60" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
+      <c r="X60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J67" s="1"/>
+      <c r="K67" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J68" s="1"/>
+      <c r="K68" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J74" s="1"/>
+      <c r="K74" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="1"/>
+    </row>
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Y1:Y14 Y16:Y55">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"T"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y14 Y16:Y55">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y15">
+  <conditionalFormatting sqref="Y1:Y77">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y15">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="Y1:Y77">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAAC12B-E98E-BF44-B4F8-5BFECC88807A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/0E0C1038-F2B0-4005-A85B-3FA2B48391D4/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/EC965B35-458B-4C09-B6B8-B7F9E2AC851C/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6454058-55A1-0145-A9AF-CA92B6170346}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0233E7F8-DBE7-6143-92E2-FA375CB0B360}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="1820" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
+    <workbookView xWindow="9660" yWindow="3040" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="328">
   <si>
     <t>T</t>
   </si>
@@ -1006,9 +1006,6 @@
   </si>
   <si>
     <t>PGSBv2.0</t>
-  </si>
-  <si>
-    <t>PGSBv2.1</t>
   </si>
   <si>
     <t>WeebilV1</t>
@@ -1065,30 +1062,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC6E0B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFE2EFDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1096,6 +1069,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC6E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1122,6 +1119,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1463,24 +1461,24 @@
   <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y16" sqref="Y16:Y17"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" customWidth="1"/>
     <col min="7" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="6.83203125" customWidth="1"/>
     <col min="10" max="10" width="5.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
     <col min="13" max="25" width="5.1640625" customWidth="1"/>
   </cols>
@@ -2548,14 +2546,14 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>261</v>
+      <c r="A21" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>69</v>
@@ -2564,16 +2562,16 @@
         <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>69</v>
@@ -2582,20 +2580,14 @@
         <v>0</v>
       </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="5"/>
+      <c r="T21" s="7"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1" t="s">
         <v>0</v>
@@ -2605,14 +2597,14 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>256</v>
+      <c r="A22" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>69</v>
@@ -2621,12 +2613,12 @@
         <v>50</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="2">
@@ -2648,8 +2640,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="1"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="1"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2662,14 +2656,14 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>286</v>
+      <c r="A23" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>69</v>
@@ -2678,21 +2672,38 @@
         <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>323</v>
+        <v>259</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
         <v>1000</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>69</v>
       </c>
       <c r="M23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="W23" s="1"/>
@@ -2704,14 +2715,14 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>287</v>
+      <c r="A24" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>69</v>
@@ -2720,7 +2731,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2746,14 +2757,14 @@
       </c>
     </row>
     <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>288</v>
+      <c r="A25" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>69</v>
@@ -2762,7 +2773,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2788,14 +2799,14 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>289</v>
+      <c r="A26" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>69</v>
@@ -2830,14 +2841,14 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>290</v>
+      <c r="A27" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>69</v>
@@ -2872,14 +2883,14 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>291</v>
+      <c r="A28" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>69</v>
@@ -2914,14 +2925,14 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>292</v>
+      <c r="A29" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>69</v>
@@ -2956,14 +2967,14 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>293</v>
+      <c r="A30" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>69</v>
@@ -2998,14 +3009,14 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>294</v>
+      <c r="A31" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>69</v>
@@ -3040,14 +3051,14 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>295</v>
+      <c r="A32" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>69</v>
@@ -3082,14 +3093,14 @@
       </c>
     </row>
     <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>296</v>
+      <c r="A33" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>69</v>
@@ -3098,7 +3109,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3124,14 +3135,14 @@
       </c>
     </row>
     <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>297</v>
+      <c r="A34" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>69</v>
@@ -3140,7 +3151,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3166,14 +3177,14 @@
       </c>
     </row>
     <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>298</v>
+      <c r="A35" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>69</v>
@@ -3182,7 +3193,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3208,14 +3219,14 @@
       </c>
     </row>
     <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>299</v>
+      <c r="A36" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>69</v>
@@ -3224,7 +3235,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -3250,14 +3261,14 @@
       </c>
     </row>
     <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>300</v>
+      <c r="A37" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>69</v>
@@ -3266,7 +3277,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3292,14 +3303,14 @@
       </c>
     </row>
     <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>301</v>
+      <c r="A38" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>69</v>
@@ -3308,7 +3319,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -3334,14 +3345,14 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
-        <v>302</v>
+      <c r="A39" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>69</v>
@@ -3350,7 +3361,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -3376,14 +3387,14 @@
       </c>
     </row>
     <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>303</v>
+      <c r="A40" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>69</v>
@@ -3392,7 +3403,7 @@
         <v>50</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3418,13 +3429,15 @@
       </c>
     </row>
     <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>265</v>
+      <c r="A41" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>285</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="D41" s="1" t="s">
         <v>69</v>
       </c>
@@ -3432,16 +3445,16 @@
         <v>50</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>267</v>
+        <v>162</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="2">
-        <v>10000</v>
+      <c r="K41" s="1">
+        <v>1000</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>69</v>
@@ -3449,15 +3462,6 @@
       <c r="M41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1" t="s">
         <v>0</v>
@@ -5094,7 +5098,7 @@
       </c>
     </row>
     <row r="73" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B73" s="1"/>
@@ -5145,7 +5149,7 @@
       </c>
     </row>
     <row r="74" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="10" t="s">
         <v>206</v>
       </c>
       <c r="B74" s="1"/>
@@ -5196,7 +5200,7 @@
       </c>
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="11" t="s">
         <v>210</v>
       </c>
       <c r="B75" s="1"/>
@@ -5247,7 +5251,7 @@
       </c>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="11" t="s">
         <v>214</v>
       </c>
       <c r="B76" s="1"/>

--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/0002C39F-0FB9-45E9-AB8D-E058827450F6/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/1C429400-07AB-44EB-B13F-04F137521487/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9737929E-6013-274F-8E24-2486382E8CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BE3C5C-CA0D-4347-BF99-480AC567DCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="2440" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
+    <workbookView xWindow="5340" yWindow="3200" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="414">
   <si>
     <t>T</t>
   </si>
@@ -1077,12 +1077,6 @@
     <t>Tspelta_D</t>
   </si>
   <si>
-    <t>/datalus/genomes/raw_AS60/AS60.final.fasta</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw_AS60/AS60.gff</t>
-  </si>
-  <si>
     <t>/datalus/genomes/raw/Taestivum_D.fa</t>
   </si>
   <si>
@@ -1228,6 +1222,60 @@
   </si>
   <si>
     <t>/datalus/genomes/raw/Tturgidum_B.fa</t>
+  </si>
+  <si>
+    <t>Atauschii_AY61</t>
+  </si>
+  <si>
+    <t>Atauschii_T093</t>
+  </si>
+  <si>
+    <t>Atauschii_XJ02</t>
+  </si>
+  <si>
+    <t>Atauschii_AY17</t>
+  </si>
+  <si>
+    <t>ay61</t>
+  </si>
+  <si>
+    <t>t093</t>
+  </si>
+  <si>
+    <t>xj02</t>
+  </si>
+  <si>
+    <t>ay17</t>
+  </si>
+  <si>
+    <t>/datalus/genomes/raw_Atauschii/raw_AS60/AS60.final.fasta</t>
+  </si>
+  <si>
+    <t>/datalus/genomes/raw_Atauschii/raw_AS60/AS60.gff</t>
+  </si>
+  <si>
+    <t>/datalus/genomes/raw_Atauschii/Atauschii_AY61/AY61.genome.fa.gz</t>
+  </si>
+  <si>
+    <t>/datalus/genomes/raw_Atauschii/Atauschii_AY61/AY61.all_gene.gff</t>
+  </si>
+  <si>
+    <t>/datalus/genomes/raw_Atauschii/Atauschii_T093/T093.genome.fa.gz</t>
+  </si>
+  <si>
+    <t>/datalus/genomes/raw_Atauschii/Atauschii_T093/T093.all_gene.gff</t>
+  </si>
+  <si>
+    <t>/datalus/genomes/raw_Atauschii/Atauschii_XJ02/XJ02.genome.fa.gz</t>
+  </si>
+  <si>
+    <t>/datalus/genomes/raw_Atauschii/Atauschii_XJ02/XJ02.all_gene.gff</t>
+  </si>
+  <si>
+    <t>/datalus/genomes/raw_Atauschii/Atauschii_AY17/AY17.genome.fa.gz</t>
+  </si>
+  <si>
+    <t>/datalus/genomes/raw_Atauschii/Atauschii_AY17/AY17.all_gene.gff</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1407,71 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1801,13 +1913,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z98"/>
+  <dimension ref="A1:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S22" sqref="S22"/>
+      <selection pane="bottomRight" activeCell="Z46" sqref="Z46:Z65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2961,7 +3073,7 @@
         <v>260</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>69</v>
@@ -3015,34 +3127,34 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B23" t="s">
-        <v>329</v>
+      <c r="A23" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="1">
-        <v>50</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="J23" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="1">
+      <c r="L23" s="2">
         <v>1000</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -3051,6 +3163,19 @@
       <c r="N23" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="O23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1" t="s">
         <v>0</v>
@@ -3060,34 +3185,34 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B24" t="s">
-        <v>329</v>
+      <c r="A24" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>320</v>
+        <v>401</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="1">
-        <v>50</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="J24" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="1">
+      <c r="L24" s="2">
         <v>1000</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -3096,6 +3221,19 @@
       <c r="N24" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="O24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1" t="s">
         <v>0</v>
@@ -3105,31 +3243,31 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" t="s">
-        <v>332</v>
+      <c r="A25" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>258</v>
+        <v>402</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="1">
-        <v>50</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="2">
@@ -3141,10 +3279,10 @@
       <c r="N25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="O25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
@@ -3152,12 +3290,8 @@
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1" t="s">
         <v>0</v>
@@ -3167,34 +3301,34 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B26" t="s">
-        <v>332</v>
+      <c r="A26" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="1">
-        <v>50</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="J26" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="1">
+      <c r="L26" s="2">
         <v>1000</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -3203,6 +3337,19 @@
       <c r="N26" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="O26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1" t="s">
         <v>0</v>
@@ -3212,17 +3359,17 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>289</v>
+      <c r="A27" s="11" t="s">
+        <v>300</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>69</v>
@@ -3231,7 +3378,7 @@
         <v>50</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3257,17 +3404,17 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>290</v>
+      <c r="A28" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="B28" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>69</v>
@@ -3276,7 +3423,7 @@
         <v>50</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3303,16 +3450,16 @@
     </row>
     <row r="29" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s">
         <v>332</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>69</v>
@@ -3321,21 +3468,38 @@
         <v>50</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>323</v>
+        <v>259</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="1">
+      <c r="L29" s="2">
         <v>1000</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X29" s="1"/>
@@ -3348,16 +3512,16 @@
     </row>
     <row r="30" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s">
         <v>332</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>69</v>
@@ -3393,16 +3557,16 @@
     </row>
     <row r="31" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s">
         <v>332</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>69</v>
@@ -3438,16 +3602,16 @@
     </row>
     <row r="32" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s">
         <v>332</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>69</v>
@@ -3483,16 +3647,16 @@
     </row>
     <row r="33" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s">
         <v>332</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>69</v>
@@ -3528,16 +3692,16 @@
     </row>
     <row r="34" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s">
         <v>332</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>69</v>
@@ -3573,16 +3737,16 @@
     </row>
     <row r="35" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s">
         <v>332</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>69</v>
@@ -3617,17 +3781,17 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>287</v>
+      <c r="A36" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="B36" t="s">
         <v>332</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>69</v>
@@ -3636,7 +3800,7 @@
         <v>50</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -3662,17 +3826,17 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>288</v>
+      <c r="A37" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="B37" t="s">
         <v>332</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>69</v>
@@ -3681,7 +3845,7 @@
         <v>50</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3707,17 +3871,17 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>296</v>
+      <c r="A38" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="B38" t="s">
         <v>332</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>69</v>
@@ -3726,7 +3890,7 @@
         <v>50</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -3752,17 +3916,17 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>297</v>
+      <c r="A39" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="B39" t="s">
         <v>332</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>69</v>
@@ -3771,7 +3935,7 @@
         <v>50</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -3798,16 +3962,16 @@
     </row>
     <row r="40" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s">
         <v>332</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>69</v>
@@ -3816,7 +3980,7 @@
         <v>50</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3843,16 +4007,16 @@
     </row>
     <row r="41" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>69</v>
@@ -3861,7 +4025,7 @@
         <v>50</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3887,29 +4051,29 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>333</v>
+      <c r="A42" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="B42" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>348</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F42" s="1">
+        <v>50</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
         <v>162</v>
       </c>
@@ -3918,64 +4082,48 @@
         <v>1000</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>372</v>
+        <v>69</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X42" s="1"/>
       <c r="Y42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z42" s="1"/>
+      <c r="Z42" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
-        <v>335</v>
+      <c r="A43" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="B43" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>350</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F43" s="1">
+        <v>50</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K43" s="1"/>
-      <c r="L43" s="2">
+      <c r="L43" s="1">
         <v>1000</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -3984,49 +4132,38 @@
       <c r="N43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T43" s="1"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z43" s="1"/>
+      <c r="Z43" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
-        <v>336</v>
+      <c r="A44" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="B44" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>352</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F44" s="1">
+        <v>50</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
         <v>162</v>
       </c>
@@ -4040,39 +4177,38 @@
       <c r="N44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z44" s="1"/>
+      <c r="Z44" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>337</v>
+      <c r="A45" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="B45" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>354</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F45" s="1">
+        <v>50</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
         <v>162</v>
       </c>
@@ -4086,27 +4222,26 @@
       <c r="N45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O45" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="X45" s="1"/>
       <c r="Y45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z45" s="1"/>
+      <c r="Z45" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s">
         <v>328</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>6</v>
@@ -4114,10 +4249,10 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>162</v>
@@ -4127,32 +4262,49 @@
         <v>1000</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>69</v>
+        <v>370</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X46" s="1"/>
       <c r="Y46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z46" s="1"/>
+      <c r="Z46" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s">
         <v>328</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
@@ -4160,16 +4312,16 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K47" s="1"/>
-      <c r="L47" s="1">
+      <c r="L47" s="2">
         <v>1000</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -4181,24 +4333,36 @@
       <c r="O47" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z47" s="1"/>
+      <c r="Z47" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s">
         <v>328</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>6</v>
@@ -4206,10 +4370,10 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>162</v>
@@ -4231,20 +4395,22 @@
       <c r="Y48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z48" s="1"/>
+      <c r="Z48" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s">
         <v>328</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>6</v>
@@ -4252,10 +4418,10 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>162</v>
@@ -4277,20 +4443,22 @@
       <c r="Y49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z49" s="1"/>
+      <c r="Z49" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s">
         <v>328</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
@@ -4298,10 +4466,10 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>162</v>
@@ -4323,20 +4491,22 @@
       <c r="Y50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z50" s="1"/>
+      <c r="Z50" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B51" t="s">
         <v>328</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>6</v>
@@ -4344,10 +4514,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>162</v>
@@ -4369,20 +4539,22 @@
       <c r="Y51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z51" s="1"/>
+      <c r="Z51" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B52" t="s">
         <v>328</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
@@ -4390,10 +4562,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>162</v>
@@ -4415,20 +4587,22 @@
       <c r="Y52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z52" s="1"/>
+      <c r="Z52" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B53" t="s">
         <v>328</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
@@ -4436,10 +4610,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>162</v>
@@ -4461,20 +4635,22 @@
       <c r="Y53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z53" s="1"/>
+      <c r="Z53" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
-        <v>373</v>
+      <c r="A54" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="B54" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>6</v>
@@ -4482,16 +4658,16 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K54" s="1"/>
-      <c r="L54" s="2">
+      <c r="L54" s="1">
         <v>1000</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -4503,32 +4679,26 @@
       <c r="O54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z54" s="1"/>
+      <c r="Z54" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
-        <v>382</v>
+      <c r="A55" s="12" t="s">
+        <v>343</v>
       </c>
       <c r="B55" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>6</v>
@@ -4536,10 +4706,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>162</v>
@@ -4561,20 +4731,22 @@
       <c r="Y55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z55" s="1"/>
+      <c r="Z55" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
-        <v>380</v>
+      <c r="A56" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="B56" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
@@ -4582,10 +4754,10 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>162</v>
@@ -4607,20 +4779,22 @@
       <c r="Y56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z56" s="1"/>
+      <c r="Z56" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
-        <v>381</v>
+      <c r="A57" s="12" t="s">
+        <v>346</v>
       </c>
       <c r="B57" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>6</v>
@@ -4628,10 +4802,10 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>162</v>
@@ -4653,14 +4827,16 @@
       <c r="Y57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z57" s="1"/>
+      <c r="Z57" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
-        <v>376</v>
+      <c r="A58" s="13" t="s">
+        <v>371</v>
       </c>
       <c r="B58" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>257</v>
@@ -4674,10 +4850,10 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>162</v>
@@ -4707,14 +4883,16 @@
       <c r="Y58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z58" s="1"/>
+      <c r="Z58" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>383</v>
+      <c r="A59" s="13" t="s">
+        <v>380</v>
       </c>
       <c r="B59" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>283</v>
@@ -4728,10 +4906,10 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>162</v>
@@ -4753,14 +4931,16 @@
       <c r="Y59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z59" s="1"/>
+      <c r="Z59" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
-        <v>392</v>
+      <c r="A60" s="13" t="s">
+        <v>378</v>
       </c>
       <c r="B60" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>282</v>
@@ -4774,10 +4954,10 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>162</v>
@@ -4799,14 +4979,16 @@
       <c r="Y60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z60" s="1"/>
+      <c r="Z60" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
-        <v>393</v>
+      <c r="A61" s="13" t="s">
+        <v>379</v>
       </c>
       <c r="B61" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>284</v>
@@ -4820,10 +5002,10 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>162</v>
@@ -4845,35 +5027,40 @@
       <c r="Y61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z61" s="1"/>
+      <c r="Z61" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>73</v>
+      <c r="A62" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B62" t="s">
+        <v>375</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>71</v>
+        <v>257</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" s="1">
-        <v>41</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="J62" s="1" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>69</v>
@@ -4884,28 +5071,14 @@
       <c r="O62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-      <c r="S62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W62" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1" t="s">
         <v>0</v>
@@ -4915,32 +5088,35 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>72</v>
+      <c r="A63" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B63" t="s">
+        <v>375</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>164</v>
+        <v>319</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F63" s="1">
-        <v>50</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="J63" s="1" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="K63" s="1"/>
-      <c r="L63" s="2">
-        <v>10000</v>
+      <c r="L63" s="1">
+        <v>1000</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>69</v>
@@ -4949,28 +5125,6 @@
         <v>0</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X63" s="1"/>
@@ -4982,52 +5136,45 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="1"/>
+      <c r="A64" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B64" t="s">
+        <v>375</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D64" s="1" t="s">
-        <v>165</v>
+        <v>318</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>66</v>
+      <c r="H64" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="K64" s="1"/>
-      <c r="L64" s="2">
-        <v>10000</v>
+      <c r="L64" s="1">
+        <v>1000</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W64" s="1"/>
+      <c r="O64" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="X64" s="1"/>
       <c r="Y64" s="1" t="s">
         <v>0</v>
@@ -5037,52 +5184,45 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="1"/>
+      <c r="A65" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="B65" t="s">
+        <v>375</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="D65" s="1" t="s">
-        <v>166</v>
+        <v>320</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>61</v>
+      <c r="H65" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="K65" s="1"/>
-      <c r="L65" s="2">
-        <v>10000</v>
+      <c r="L65" s="1">
+        <v>1000</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W65" s="1"/>
+      <c r="O65" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="X65" s="1"/>
       <c r="Y65" s="1" t="s">
         <v>0</v>
@@ -5092,40 +5232,48 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="1"/>
+      <c r="A66" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D66" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F66" s="1">
+        <v>41</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="2">
         <v>10000</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
+      <c r="O66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="R66" s="1"/>
       <c r="S66" s="1" t="s">
         <v>0</v>
@@ -5133,11 +5281,15 @@
       <c r="T66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U66" s="1"/>
+      <c r="U66" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W66" s="1"/>
+      <c r="W66" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="X66" s="1"/>
       <c r="Y66" s="1" t="s">
         <v>0</v>
@@ -5148,23 +5300,25 @@
     </row>
     <row r="67" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D67" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>230</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F67" s="1">
+        <v>50</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
         <v>51</v>
       </c>
@@ -5173,7 +5327,7 @@
         <v>10000</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>0</v>
@@ -5212,12 +5366,12 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>50</v>
+      <c r="A68" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>4</v>
@@ -5225,28 +5379,26 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="4" t="s">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="2">
         <v>10000</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O68" s="1"/>
-      <c r="P68" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1" t="s">
@@ -5269,12 +5421,12 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>49</v>
+      <c r="A69" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>4</v>
@@ -5282,28 +5434,26 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="4" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>232</v>
+        <v>61</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="2">
         <v>10000</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O69" s="1"/>
-      <c r="P69" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1" t="s">
@@ -5326,12 +5476,12 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>48</v>
+      <c r="A70" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>4</v>
@@ -5339,28 +5489,26 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>233</v>
+        <v>56</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="2">
         <v>10000</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O70" s="1"/>
-      <c r="P70" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1" t="s">
@@ -5384,11 +5532,11 @@
     </row>
     <row r="71" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>4</v>
@@ -5396,13 +5544,13 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="4" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="2">
@@ -5414,11 +5562,15 @@
       <c r="N71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O71" s="1"/>
+      <c r="O71" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="P71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q71" s="1"/>
+      <c r="Q71" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="R71" s="1"/>
       <c r="S71" s="1" t="s">
         <v>0</v>
@@ -5426,11 +5578,15 @@
       <c r="T71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U71" s="1"/>
+      <c r="U71" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W71" s="1"/>
+      <c r="W71" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="X71" s="1"/>
       <c r="Y71" s="1" t="s">
         <v>0</v>
@@ -5441,11 +5597,11 @@
     </row>
     <row r="72" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>4</v>
@@ -5453,10 +5609,10 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>162</v>
@@ -5498,11 +5654,11 @@
     </row>
     <row r="73" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>4</v>
@@ -5510,10 +5666,10 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>162</v>
@@ -5555,11 +5711,11 @@
     </row>
     <row r="74" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>4</v>
@@ -5567,10 +5723,10 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="4" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>162</v>
@@ -5612,11 +5768,11 @@
     </row>
     <row r="75" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>4</v>
@@ -5624,10 +5780,10 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="4" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>162</v>
@@ -5669,11 +5825,11 @@
     </row>
     <row r="76" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>4</v>
@@ -5681,10 +5837,10 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>162</v>
@@ -5726,11 +5882,11 @@
     </row>
     <row r="77" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>4</v>
@@ -5738,10 +5894,10 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="4" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>162</v>
@@ -5783,11 +5939,11 @@
     </row>
     <row r="78" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>4</v>
@@ -5795,10 +5951,10 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="4" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>162</v>
@@ -5840,11 +5996,11 @@
     </row>
     <row r="79" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>4</v>
@@ -5852,10 +6008,10 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>162</v>
@@ -5897,11 +6053,11 @@
     </row>
     <row r="80" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>4</v>
@@ -5909,10 +6065,10 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="4" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>162</v>
@@ -5954,11 +6110,11 @@
     </row>
     <row r="81" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>4</v>
@@ -5966,10 +6122,10 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>162</v>
@@ -6011,11 +6167,11 @@
     </row>
     <row r="82" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>4</v>
@@ -6023,10 +6179,10 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>162</v>
@@ -6068,11 +6224,11 @@
     </row>
     <row r="83" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>4</v>
@@ -6080,10 +6236,10 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>162</v>
@@ -6125,11 +6281,11 @@
     </row>
     <row r="84" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>4</v>
@@ -6137,10 +6293,10 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>162</v>
@@ -6182,11 +6338,11 @@
     </row>
     <row r="85" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>4</v>
@@ -6194,10 +6350,10 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>162</v>
@@ -6239,11 +6395,11 @@
     </row>
     <row r="86" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>4</v>
@@ -6251,10 +6407,10 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>162</v>
@@ -6296,11 +6452,11 @@
     </row>
     <row r="87" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>4</v>
@@ -6308,10 +6464,10 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>162</v>
@@ -6353,11 +6509,11 @@
     </row>
     <row r="88" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>4</v>
@@ -6365,10 +6521,10 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>162</v>
@@ -6410,11 +6566,11 @@
     </row>
     <row r="89" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>4</v>
@@ -6422,10 +6578,10 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>162</v>
@@ -6467,11 +6623,11 @@
     </row>
     <row r="90" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>4</v>
@@ -6479,10 +6635,10 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>162</v>
@@ -6524,11 +6680,11 @@
     </row>
     <row r="91" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>4</v>
@@ -6536,10 +6692,10 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>162</v>
@@ -6581,11 +6737,11 @@
     </row>
     <row r="92" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>4</v>
@@ -6593,10 +6749,10 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>162</v>
@@ -6637,29 +6793,29 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="8" t="s">
-        <v>202</v>
+      <c r="A93" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>205</v>
+      <c r="H93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K93" s="1"/>
-      <c r="L93" s="1">
+      <c r="L93" s="2">
         <v>10000</v>
       </c>
       <c r="M93" s="1" t="s">
@@ -6694,12 +6850,12 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="9" t="s">
-        <v>206</v>
+      <c r="A94" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>4</v>
@@ -6707,10 +6863,10 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="4" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>162</v>
@@ -6750,30 +6906,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="10" t="s">
-        <v>210</v>
+    <row r="95" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>213</v>
+      <c r="H95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K95" s="1"/>
-      <c r="L95" s="1">
+      <c r="L95" s="2">
         <v>10000</v>
       </c>
       <c r="M95" s="1" t="s">
@@ -6807,30 +6963,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="10" t="s">
-        <v>214</v>
+    <row r="96" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>217</v>
+      <c r="H96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K96" s="1"/>
-      <c r="L96" s="1">
+      <c r="L96" s="2">
         <v>10000</v>
       </c>
       <c r="M96" s="1" t="s">
@@ -6864,13 +7020,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>5</v>
+    <row r="97" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>4</v>
@@ -6878,10 +7034,10 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>162</v>
@@ -6891,126 +7047,334 @@
         <v>10000</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N97" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
+      <c r="P97" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
+      <c r="S97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
+      <c r="V97" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
-      <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
-    </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
+      <c r="Y97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="H98" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
+      <c r="L98" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
+      <c r="P98" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
+      <c r="S98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
+      <c r="V98" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
-      <c r="Y98" s="1"/>
-      <c r="Z98" s="1"/>
+      <c r="Y98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+    </row>
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Z1:Z41 B1 B22 Z62:Z97">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+  <conditionalFormatting sqref="Z1:Z22 B1 B22 Z66:Z101 Z27:Z45">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:Z41 B1 B22 Z62:Z97">
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+  <conditionalFormatting sqref="Z1:Z22 B1 B22 Z66:Z101 Z27:Z45">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z42">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+  <conditionalFormatting sqref="Z46:Z65">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z42">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+  <conditionalFormatting sqref="Z46:Z65">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z43:Z53">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="Z23 B23">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z43:Z53">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+  <conditionalFormatting sqref="Z23 B23">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z58">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"T"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z58">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z54">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>"T"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z54">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z55:Z57">
+  <conditionalFormatting sqref="Z24 B24">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z55:Z57">
+  <conditionalFormatting sqref="Z24 B24">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z59">
+  <conditionalFormatting sqref="Z25 B25">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z59">
+  <conditionalFormatting sqref="Z25 B25">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z60:Z61">
+  <conditionalFormatting sqref="Z26 B26">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z60:Z61">
+  <conditionalFormatting sqref="Z26 B26">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"C"</formula>
     </cfRule>

--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/1C429400-07AB-44EB-B13F-04F137521487/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/6BD022B9-1134-4F8F-AA4F-26BA165230DB/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BE3C5C-CA0D-4347-BF99-480AC567DCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4468A142-7477-0644-9132-C8B62EB559C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="3200" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="414">
   <si>
     <t>T</t>
   </si>
@@ -1407,103 +1407,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1916,10 +1820,10 @@
   <dimension ref="A1:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z46" sqref="Z46:Z65"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5366,12 +5270,12 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>68</v>
+      <c r="A68" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>4</v>
@@ -5379,27 +5283,33 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="2">
         <v>10000</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
+      <c r="O68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="R68" s="1"/>
       <c r="S68" s="1" t="s">
         <v>0</v>
@@ -5407,11 +5317,15 @@
       <c r="T68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U68" s="1"/>
+      <c r="U68" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W68" s="1"/>
+      <c r="W68" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="X68" s="1"/>
       <c r="Y68" s="1" t="s">
         <v>0</v>
@@ -5422,11 +5336,11 @@
     </row>
     <row r="69" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>4</v>
@@ -5434,34 +5348,34 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="2">
         <v>10000</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O69" s="1"/>
+      <c r="O69" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T69" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1" t="s">
         <v>0</v>
@@ -5477,11 +5391,11 @@
     </row>
     <row r="70" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>4</v>
@@ -5489,34 +5403,34 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="2">
         <v>10000</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O70" s="1"/>
+      <c r="O70" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T70" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T70" s="1"/>
       <c r="U70" s="1"/>
       <c r="V70" s="1" t="s">
         <v>0</v>
@@ -5531,12 +5445,12 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>53</v>
+      <c r="A71" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>4</v>
@@ -5544,20 +5458,20 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="2">
         <v>10000</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>0</v>
@@ -5565,28 +5479,18 @@
       <c r="O71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
       <c r="V71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W71" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1" t="s">
         <v>0</v>
@@ -5627,8 +5531,7 @@
       <c r="N72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q72" s="1"/>
@@ -5636,9 +5539,7 @@
       <c r="S72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T72" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1" t="s">
         <v>0</v>
@@ -5684,8 +5585,7 @@
       <c r="N73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1" t="s">
+      <c r="O73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q73" s="1"/>
@@ -5693,9 +5593,7 @@
       <c r="S73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T73" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1" t="s">
         <v>0</v>
@@ -5741,8 +5639,7 @@
       <c r="N74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1" t="s">
+      <c r="O74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q74" s="1"/>
@@ -5750,9 +5647,7 @@
       <c r="S74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T74" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1" t="s">
         <v>0</v>
@@ -5798,8 +5693,7 @@
       <c r="N75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1" t="s">
+      <c r="O75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q75" s="1"/>
@@ -5807,9 +5701,7 @@
       <c r="S75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T75" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1" t="s">
         <v>0</v>
@@ -5855,8 +5747,7 @@
       <c r="N76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1" t="s">
+      <c r="O76" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q76" s="1"/>
@@ -5864,9 +5755,7 @@
       <c r="S76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T76" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1" t="s">
         <v>0</v>
@@ -5912,8 +5801,7 @@
       <c r="N77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q77" s="1"/>
@@ -5921,9 +5809,7 @@
       <c r="S77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T77" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1" t="s">
         <v>0</v>
@@ -5969,8 +5855,7 @@
       <c r="N78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1" t="s">
+      <c r="O78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q78" s="1"/>
@@ -5978,9 +5863,7 @@
       <c r="S78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T78" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1" t="s">
         <v>0</v>
@@ -6026,8 +5909,7 @@
       <c r="N79" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1" t="s">
+      <c r="O79" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q79" s="1"/>
@@ -6035,9 +5917,7 @@
       <c r="S79" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T79" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1" t="s">
         <v>0</v>
@@ -6083,8 +5963,7 @@
       <c r="N80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1" t="s">
+      <c r="O80" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q80" s="1"/>
@@ -6092,9 +5971,7 @@
       <c r="S80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T80" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1" t="s">
         <v>0</v>
@@ -6140,8 +6017,7 @@
       <c r="N81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1" t="s">
+      <c r="O81" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q81" s="1"/>
@@ -6149,9 +6025,7 @@
       <c r="S81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T81" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1" t="s">
         <v>0</v>
@@ -6197,8 +6071,7 @@
       <c r="N82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1" t="s">
+      <c r="O82" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q82" s="1"/>
@@ -6206,9 +6079,7 @@
       <c r="S82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T82" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T82" s="1"/>
       <c r="U82" s="1"/>
       <c r="V82" s="1" t="s">
         <v>0</v>
@@ -6254,8 +6125,7 @@
       <c r="N83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1" t="s">
+      <c r="O83" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q83" s="1"/>
@@ -6263,9 +6133,7 @@
       <c r="S83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T83" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T83" s="1"/>
       <c r="U83" s="1"/>
       <c r="V83" s="1" t="s">
         <v>0</v>
@@ -6311,8 +6179,7 @@
       <c r="N84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1" t="s">
+      <c r="O84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q84" s="1"/>
@@ -6320,9 +6187,7 @@
       <c r="S84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T84" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T84" s="1"/>
       <c r="U84" s="1"/>
       <c r="V84" s="1" t="s">
         <v>0</v>
@@ -6368,8 +6233,7 @@
       <c r="N85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1" t="s">
+      <c r="O85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q85" s="1"/>
@@ -6377,9 +6241,7 @@
       <c r="S85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T85" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T85" s="1"/>
       <c r="U85" s="1"/>
       <c r="V85" s="1" t="s">
         <v>0</v>
@@ -6425,8 +6287,7 @@
       <c r="N86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1" t="s">
+      <c r="O86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q86" s="1"/>
@@ -6434,9 +6295,7 @@
       <c r="S86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T86" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="V86" s="1" t="s">
         <v>0</v>
@@ -6482,8 +6341,7 @@
       <c r="N87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1" t="s">
+      <c r="O87" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q87" s="1"/>
@@ -6491,9 +6349,7 @@
       <c r="S87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T87" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T87" s="1"/>
       <c r="U87" s="1"/>
       <c r="V87" s="1" t="s">
         <v>0</v>
@@ -6539,8 +6395,7 @@
       <c r="N88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1" t="s">
+      <c r="O88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q88" s="1"/>
@@ -6548,9 +6403,7 @@
       <c r="S88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T88" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T88" s="1"/>
       <c r="U88" s="1"/>
       <c r="V88" s="1" t="s">
         <v>0</v>
@@ -6596,8 +6449,7 @@
       <c r="N89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1" t="s">
+      <c r="O89" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q89" s="1"/>
@@ -6605,9 +6457,7 @@
       <c r="S89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T89" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T89" s="1"/>
       <c r="U89" s="1"/>
       <c r="V89" s="1" t="s">
         <v>0</v>
@@ -6653,8 +6503,7 @@
       <c r="N90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1" t="s">
+      <c r="O90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q90" s="1"/>
@@ -6662,9 +6511,7 @@
       <c r="S90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T90" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T90" s="1"/>
       <c r="U90" s="1"/>
       <c r="V90" s="1" t="s">
         <v>0</v>
@@ -6710,8 +6557,7 @@
       <c r="N91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1" t="s">
+      <c r="O91" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q91" s="1"/>
@@ -6719,9 +6565,7 @@
       <c r="S91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T91" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T91" s="1"/>
       <c r="U91" s="1"/>
       <c r="V91" s="1" t="s">
         <v>0</v>
@@ -6767,8 +6611,7 @@
       <c r="N92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1" t="s">
+      <c r="O92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q92" s="1"/>
@@ -6776,9 +6619,7 @@
       <c r="S92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T92" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T92" s="1"/>
       <c r="U92" s="1"/>
       <c r="V92" s="1" t="s">
         <v>0</v>
@@ -6824,8 +6665,7 @@
       <c r="N93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1" t="s">
+      <c r="O93" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q93" s="1"/>
@@ -6833,9 +6673,7 @@
       <c r="S93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T93" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T93" s="1"/>
       <c r="U93" s="1"/>
       <c r="V93" s="1" t="s">
         <v>0</v>
@@ -6881,8 +6719,7 @@
       <c r="N94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1" t="s">
+      <c r="O94" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q94" s="1"/>
@@ -6890,9 +6727,7 @@
       <c r="S94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T94" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T94" s="1"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1" t="s">
         <v>0</v>
@@ -6938,8 +6773,7 @@
       <c r="N95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1" t="s">
+      <c r="O95" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q95" s="1"/>
@@ -6947,9 +6781,7 @@
       <c r="S95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T95" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T95" s="1"/>
       <c r="U95" s="1"/>
       <c r="V95" s="1" t="s">
         <v>0</v>
@@ -6995,8 +6827,7 @@
       <c r="N96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1" t="s">
+      <c r="O96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q96" s="1"/>
@@ -7004,9 +6835,7 @@
       <c r="S96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T96" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T96" s="1"/>
       <c r="U96" s="1"/>
       <c r="V96" s="1" t="s">
         <v>0</v>
@@ -7052,8 +6881,7 @@
       <c r="N97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1" t="s">
+      <c r="O97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q97" s="1"/>
@@ -7061,9 +6889,7 @@
       <c r="S97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T97" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T97" s="1"/>
       <c r="U97" s="1"/>
       <c r="V97" s="1" t="s">
         <v>0</v>
@@ -7109,8 +6935,7 @@
       <c r="N98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1" t="s">
+      <c r="O98" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q98" s="1"/>
@@ -7118,9 +6943,7 @@
       <c r="S98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T98" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T98" s="1"/>
       <c r="U98" s="1"/>
       <c r="V98" s="1" t="s">
         <v>0</v>
@@ -7166,8 +6989,7 @@
       <c r="N99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1" t="s">
+      <c r="O99" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q99" s="1"/>
@@ -7175,9 +6997,7 @@
       <c r="S99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T99" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="1" t="s">
         <v>0</v>
@@ -7223,8 +7043,7 @@
       <c r="N100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1" t="s">
+      <c r="O100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q100" s="1"/>
@@ -7232,9 +7051,7 @@
       <c r="S100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T100" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="T100" s="1"/>
       <c r="U100" s="1"/>
       <c r="V100" s="1" t="s">
         <v>0</v>
@@ -7319,23 +7136,23 @@
       <c r="Z102" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Z1:Z22 B1 B22 Z66:Z101 Z27:Z45">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+  <conditionalFormatting sqref="Z1:Z22 B1 B22 Z27:Z45 Z66:Z101">
+    <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:Z22 B1 B22 Z66:Z101 Z27:Z45">
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+  <conditionalFormatting sqref="Z1:Z22 B1 B22 Z27:Z45 Z66:Z101">
+    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z46:Z65">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z46:Z65">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/6BD022B9-1134-4F8F-AA4F-26BA165230DB/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/5C99CA29-BCAF-4F64-8AFC-A95DEE9CDB88/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4468A142-7477-0644-9132-C8B62EB559C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8A4515-4033-084B-9906-192FED15D279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="3200" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
+    <workbookView xWindow="5340" yWindow="3140" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="412">
   <si>
     <t>T</t>
   </si>
@@ -201,9 +201,6 @@
     <t>ph207</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>https://ftp.maizegdb.org/MaizeGDB/FTP/Zm-PH207-REFERENCE_NS-UIUC_UMN-1.0/Zm-PH207-REFERENCE_NS-UIUC_UMN-1.0_Zm00008a.1.gff3.gz</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>w22</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>https://ftp.maizegdb.org/MaizeGDB/FTP/Zm-W22-REFERENCE-NRGENE-2.0/Zm-W22-REFERENCE-NRGENE-2.0_Zm00004b.1.gff3.gz</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
     <t>mo17</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>https://ftp.maizegdb.org/MaizeGDB/FTP/Zm-Mo17-REFERENCE-CAU-1.0/Zm-Mo17-REFERENCE-CAU-1.0_Zm00014a.1.gff3.gz</t>
   </si>
   <si>
@@ -696,12 +687,6 @@
     <t>Svm</t>
   </si>
   <si>
-    <t>/home/springer/zhoux379/projects/genome/data/raw/Sviridis_ME034v/raw.fas</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/genome/data/raw/Sviridis_ME034v/raw.gff</t>
-  </si>
-  <si>
     <t>Sviridis</t>
   </si>
   <si>
@@ -717,12 +702,6 @@
     <t>Sviridis1</t>
   </si>
   <si>
-    <t>/home/springer/zhoux379/projects/genome/data/raw/Sviridis/raw.fas</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/genome/data/raw/Sviridis/raw.gff</t>
-  </si>
-  <si>
     <t>phytozome</t>
   </si>
   <si>
@@ -822,9 +801,6 @@
     <t>Atauschii</t>
   </si>
   <si>
-    <t>Aet</t>
-  </si>
-  <si>
     <t>Aet_v4.0</t>
   </si>
   <si>
@@ -1077,72 +1053,6 @@
     <t>Tspelta_D</t>
   </si>
   <si>
-    <t>/datalus/genomes/raw/Taestivum_D.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_D.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_arinalrfor_D.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_arinalrfor_D.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_jagger_D.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_jagger_D.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_julius_D.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_julius_D.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_lancer_D.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_lancer_D.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_landmark_D.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_landmark_D.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_mace_D.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_mace_D.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_mattis_D.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_mattis_D.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_norin61_D.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_norin61_D.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_stanley_D.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_stanley_D.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Tspelta_D.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Tspelta_D.gff</t>
-  </si>
-  <si>
     <t>al878</t>
   </si>
   <si>
@@ -1152,24 +1062,12 @@
     <t>Taestivum_A</t>
   </si>
   <si>
-    <t>/datalus/genomes/raw/Taestivum_A.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_A.gff</t>
-  </si>
-  <si>
     <t>Taestivum_B</t>
   </si>
   <si>
     <t>BB</t>
   </si>
   <si>
-    <t>/datalus/genomes/raw/Taestivum_B.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Taestivum_B.gff</t>
-  </si>
-  <si>
     <t>Tdicoccoides_A</t>
   </si>
   <si>
@@ -1182,48 +1080,12 @@
     <t>Tspelta_B</t>
   </si>
   <si>
-    <t>/datalus/genomes/raw/Tspelta_A.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Tspelta_B.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Tspelta_B.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Tspelta_A.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Tdicoccoides_A.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Tdicoccoides_A.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Tturgidum_A.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Tturgidum_A.gff</t>
-  </si>
-  <si>
     <t>Tdicoccoides_B</t>
   </si>
   <si>
     <t>Tturgidum_B</t>
   </si>
   <si>
-    <t>/datalus/genomes/raw/Tdicoccoides_B.fa</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Tdicoccoides_B.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Tturgidum_B.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw/Tturgidum_B.fa</t>
-  </si>
-  <si>
     <t>Atauschii_AY61</t>
   </si>
   <si>
@@ -1248,34 +1110,166 @@
     <t>ay17</t>
   </si>
   <si>
-    <t>/datalus/genomes/raw_Atauschii/raw_AS60/AS60.final.fasta</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw_Atauschii/raw_AS60/AS60.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw_Atauschii/Atauschii_AY61/AY61.genome.fa.gz</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw_Atauschii/Atauschii_AY61/AY61.all_gene.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw_Atauschii/Atauschii_T093/T093.genome.fa.gz</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw_Atauschii/Atauschii_T093/T093.all_gene.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw_Atauschii/Atauschii_XJ02/XJ02.genome.fa.gz</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw_Atauschii/Atauschii_XJ02/XJ02.all_gene.gff</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw_Atauschii/Atauschii_AY17/AY17.genome.fa.gz</t>
-  </si>
-  <si>
-    <t>/datalus/genomes/raw_Atauschii/Atauschii_AY17/AY17.all_gene.gff</t>
+    <t>raw/Sviridis_ME034v/raw.fas</t>
+  </si>
+  <si>
+    <t>raw/Sviridis_ME034v/raw.gff</t>
+  </si>
+  <si>
+    <t>raw/Sviridis/raw.gff</t>
+  </si>
+  <si>
+    <t>raw/Sviridis/raw.fas</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/Atauschii_AY61/AY61.genome.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/Atauschii_T093/T093.all_gene.gff</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/Atauschii_T093/T093.genome.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/Atauschii_AY61/AY61.all_gene.gff</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/Atauschii_XJ02/XJ02.all_gene.gff</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/Atauschii_XJ02/XJ02.genome.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/Atauschii_AY17/AY17.genome.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/Atauschii_AY17/AY17.all_gene.gff</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/raw_AS60/AS60.final.fasta</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/raw_AS60/AS60.gff</t>
+  </si>
+  <si>
+    <t>B73 RefGen_v5</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_D.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_D.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_arinalrfor_D.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_arinalrfor_D.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_jagger_D.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_jagger_D.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_julius_D.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_julius_D.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_lancer_D.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_lancer_D.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_landmark_D.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_landmark_D.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_mace_D.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_mace_D.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_mattis_D.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_mattis_D.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_norin61_D.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_norin61_D.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_stanley_D.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_stanley_D.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Tspelta_D.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Tspelta_D.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_A.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_A.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Tspelta_A.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Tspelta_A.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Tdicoccoides_A.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Tdicoccoides_A.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Tturgidum_A.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Tturgidum_A.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_B.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_B.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Tspelta_B.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Tspelta_B.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Tdicoccoides_B.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Tdicoccoides_B.gff.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Tturgidum_B.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Tturgidum_B.gff.gz</t>
+  </si>
+  <si>
+    <t>B73v4</t>
   </si>
 </sst>
 </file>
@@ -1820,10 +1814,10 @@
   <dimension ref="A1:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1845,114 +1839,114 @@
   <sheetData>
     <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1">
         <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="2">
         <v>10000</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>0</v>
@@ -1996,34 +1990,34 @@
     </row>
     <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1">
         <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="2">
         <v>10000</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>0</v>
@@ -2047,34 +2041,34 @@
     </row>
     <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1">
         <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="2">
         <v>10000</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>0</v>
@@ -2098,34 +2092,34 @@
     </row>
     <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1">
         <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="2">
         <v>10000</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>0</v>
@@ -2149,34 +2143,34 @@
     </row>
     <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1">
         <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="2">
         <v>10000</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>0</v>
@@ -2200,34 +2194,34 @@
     </row>
     <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1">
         <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="2">
         <v>10000</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>0</v>
@@ -2251,34 +2245,34 @@
     </row>
     <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1">
         <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="2">
         <v>10000</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>0</v>
@@ -2302,34 +2296,34 @@
     </row>
     <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1">
         <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="2">
         <v>10000</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>0</v>
@@ -2353,34 +2347,34 @@
     </row>
     <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1">
         <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="2">
         <v>10000</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>0</v>
@@ -2404,34 +2398,34 @@
     </row>
     <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1">
         <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="2">
         <v>10000</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>0</v>
@@ -2455,34 +2449,34 @@
     </row>
     <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1">
         <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="2">
         <v>10000</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>0</v>
@@ -2506,34 +2500,34 @@
     </row>
     <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1">
         <v>50</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="2">
         <v>10000</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>0</v>
@@ -2557,34 +2551,34 @@
     </row>
     <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1">
         <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="2">
         <v>10000</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>0</v>
@@ -2608,34 +2602,34 @@
     </row>
     <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1">
         <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="2">
         <v>10000</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>0</v>
@@ -2659,13 +2653,13 @@
     </row>
     <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
@@ -2673,20 +2667,20 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>227</v>
+        <v>361</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>228</v>
+        <v>360</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="2">
         <v>10000</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>0</v>
@@ -2708,13 +2702,13 @@
     </row>
     <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>6</v>
@@ -2722,20 +2716,20 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>220</v>
+        <v>358</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>221</v>
+        <v>359</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="2">
         <v>10000</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>0</v>
@@ -2757,34 +2751,34 @@
     </row>
     <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1">
         <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="2">
         <v>10000</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>0</v>
@@ -2808,34 +2802,34 @@
     </row>
     <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F19" s="1">
         <v>50</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="2">
         <v>10000</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>0</v>
@@ -2859,34 +2853,34 @@
     </row>
     <row r="20" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1">
         <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="2">
         <v>10000</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>0</v>
@@ -2910,37 +2904,37 @@
     </row>
     <row r="21" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1">
         <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="2">
         <v>10000</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>0</v>
@@ -2968,37 +2962,37 @@
     </row>
     <row r="22" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1">
         <v>50</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>262</v>
+        <v>159</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="2">
         <v>1000</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>0</v>
@@ -3032,16 +3026,16 @@
     </row>
     <row r="23" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
@@ -3049,20 +3043,20 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="2">
         <v>1000</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>0</v>
@@ -3090,16 +3084,16 @@
     </row>
     <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
@@ -3107,20 +3101,20 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="2">
         <v>1000</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>0</v>
@@ -3148,16 +3142,16 @@
     </row>
     <row r="25" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>
@@ -3165,20 +3159,20 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="2">
         <v>1000</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>0</v>
@@ -3206,16 +3200,16 @@
     </row>
     <row r="26" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
@@ -3223,20 +3217,20 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="2">
         <v>1000</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>0</v>
@@ -3264,37 +3258,37 @@
     </row>
     <row r="27" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F27" s="1">
         <v>50</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1">
         <v>1000</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>0</v>
@@ -3309,37 +3303,37 @@
     </row>
     <row r="28" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F28" s="1">
         <v>50</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1">
         <v>1000</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>0</v>
@@ -3354,37 +3348,37 @@
     </row>
     <row r="29" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F29" s="1">
         <v>50</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="2">
         <v>1000</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>0</v>
@@ -3416,37 +3410,37 @@
     </row>
     <row r="30" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F30" s="1">
         <v>50</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
         <v>1000</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>0</v>
@@ -3461,37 +3455,37 @@
     </row>
     <row r="31" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F31" s="1">
         <v>50</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1">
         <v>1000</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>0</v>
@@ -3506,37 +3500,37 @@
     </row>
     <row r="32" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F32" s="1">
         <v>50</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1">
         <v>1000</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>0</v>
@@ -3551,37 +3545,37 @@
     </row>
     <row r="33" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F33" s="1">
         <v>50</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1">
         <v>1000</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>0</v>
@@ -3596,37 +3590,37 @@
     </row>
     <row r="34" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F34" s="1">
         <v>50</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1">
         <v>1000</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>0</v>
@@ -3641,37 +3635,37 @@
     </row>
     <row r="35" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F35" s="1">
         <v>50</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1">
         <v>1000</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>0</v>
@@ -3686,37 +3680,37 @@
     </row>
     <row r="36" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F36" s="1">
         <v>50</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1">
         <v>1000</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>0</v>
@@ -3731,37 +3725,37 @@
     </row>
     <row r="37" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F37" s="1">
         <v>50</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1">
         <v>1000</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>0</v>
@@ -3776,37 +3770,37 @@
     </row>
     <row r="38" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F38" s="1">
         <v>50</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1">
         <v>1000</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>0</v>
@@ -3821,37 +3815,37 @@
     </row>
     <row r="39" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F39" s="1">
         <v>50</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1">
         <v>1000</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>0</v>
@@ -3866,37 +3860,37 @@
     </row>
     <row r="40" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F40" s="1">
         <v>50</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1">
         <v>1000</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>0</v>
@@ -3911,37 +3905,37 @@
     </row>
     <row r="41" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F41" s="1">
         <v>50</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1">
         <v>1000</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>0</v>
@@ -3956,37 +3950,37 @@
     </row>
     <row r="42" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F42" s="1">
         <v>50</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1">
         <v>1000</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>0</v>
@@ -4001,37 +3995,37 @@
     </row>
     <row r="43" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B43" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F43" s="1">
         <v>50</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1">
         <v>1000</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>0</v>
@@ -4046,37 +4040,37 @@
     </row>
     <row r="44" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B44" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F44" s="1">
         <v>50</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1">
         <v>1000</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>0</v>
@@ -4091,37 +4085,37 @@
     </row>
     <row r="45" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B45" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F45" s="1">
         <v>50</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1">
         <v>1000</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>0</v>
@@ -4136,16 +4130,16 @@
     </row>
     <row r="46" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>6</v>
@@ -4153,20 +4147,20 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1">
         <v>1000</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>0</v>
@@ -4199,16 +4193,16 @@
     </row>
     <row r="47" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
@@ -4216,20 +4210,20 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="2">
         <v>1000</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>0</v>
@@ -4257,16 +4251,16 @@
     </row>
     <row r="48" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B48" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>6</v>
@@ -4274,20 +4268,20 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1">
         <v>1000</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>0</v>
@@ -4305,16 +4299,16 @@
     </row>
     <row r="49" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>6</v>
@@ -4322,20 +4316,20 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1">
         <v>1000</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>0</v>
@@ -4353,16 +4347,16 @@
     </row>
     <row r="50" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
@@ -4370,20 +4364,20 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1">
         <v>1000</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>0</v>
@@ -4401,16 +4395,16 @@
     </row>
     <row r="51" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>6</v>
@@ -4418,20 +4412,20 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1">
         <v>1000</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>0</v>
@@ -4449,16 +4443,16 @@
     </row>
     <row r="52" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B52" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
@@ -4466,20 +4460,20 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1">
         <v>1000</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>0</v>
@@ -4497,16 +4491,16 @@
     </row>
     <row r="53" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B53" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
@@ -4514,20 +4508,20 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1">
         <v>1000</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>0</v>
@@ -4545,16 +4539,16 @@
     </row>
     <row r="54" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B54" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>6</v>
@@ -4562,20 +4556,20 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1">
         <v>1000</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>0</v>
@@ -4593,16 +4587,16 @@
     </row>
     <row r="55" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B55" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>6</v>
@@ -4610,20 +4604,20 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1">
         <v>1000</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>0</v>
@@ -4641,16 +4635,16 @@
     </row>
     <row r="56" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B56" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
@@ -4658,20 +4652,20 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1">
         <v>1000</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>0</v>
@@ -4689,16 +4683,16 @@
     </row>
     <row r="57" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B57" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>6</v>
@@ -4706,20 +4700,20 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1">
         <v>1000</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>0</v>
@@ -4737,16 +4731,16 @@
     </row>
     <row r="58" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="B58" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>6</v>
@@ -4754,20 +4748,20 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="2">
         <v>1000</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>0</v>
@@ -4793,16 +4787,16 @@
     </row>
     <row r="59" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="B59" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
@@ -4810,20 +4804,20 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1">
         <v>1000</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>0</v>
@@ -4841,16 +4835,16 @@
     </row>
     <row r="60" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="B60" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>6</v>
@@ -4858,20 +4852,20 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1">
         <v>1000</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>0</v>
@@ -4889,16 +4883,16 @@
     </row>
     <row r="61" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="B61" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>6</v>
@@ -4906,20 +4900,20 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1">
         <v>1000</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>0</v>
@@ -4937,16 +4931,16 @@
     </row>
     <row r="62" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="B62" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>6</v>
@@ -4954,20 +4948,20 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="2">
         <v>1000</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>0</v>
@@ -4993,16 +4987,16 @@
     </row>
     <row r="63" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="B63" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>6</v>
@@ -5010,20 +5004,20 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1">
         <v>1000</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>0</v>
@@ -5041,16 +5035,16 @@
     </row>
     <row r="64" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="B64" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>6</v>
@@ -5058,20 +5052,20 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1">
         <v>1000</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>0</v>
@@ -5089,16 +5083,16 @@
     </row>
     <row r="65" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="B65" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>6</v>
@@ -5106,20 +5100,20 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1">
         <v>1000</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>0</v>
@@ -5137,22 +5131,22 @@
     </row>
     <row r="66" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F66" s="1">
         <v>41</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -5164,7 +5158,7 @@
         <v>10000</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>0</v>
@@ -5204,34 +5198,34 @@
     </row>
     <row r="67" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>164</v>
+        <v>411</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F67" s="1">
         <v>50</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="2">
         <v>10000</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>0</v>
@@ -5275,21 +5269,23 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="H68" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="2">
@@ -5336,11 +5332,11 @@
     </row>
     <row r="69" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>4</v>
@@ -5348,20 +5344,20 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="2">
         <v>10000</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>0</v>
@@ -5391,11 +5387,11 @@
     </row>
     <row r="70" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>4</v>
@@ -5403,20 +5399,20 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="2">
         <v>10000</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>0</v>
@@ -5446,11 +5442,11 @@
     </row>
     <row r="71" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>4</v>
@@ -5458,13 +5454,13 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="2">
@@ -5505,7 +5501,7 @@
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>4</v>
@@ -5513,13 +5509,13 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="2">
@@ -5559,7 +5555,7 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>4</v>
@@ -5567,13 +5563,13 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="2">
@@ -5613,7 +5609,7 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>4</v>
@@ -5624,10 +5620,10 @@
         <v>47</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="2">
@@ -5667,7 +5663,7 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>4</v>
@@ -5675,13 +5671,13 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="2">
@@ -5721,7 +5717,7 @@
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>4</v>
@@ -5729,13 +5725,13 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="2">
@@ -5775,7 +5771,7 @@
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>4</v>
@@ -5783,13 +5779,13 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="2">
@@ -5829,7 +5825,7 @@
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>4</v>
@@ -5837,13 +5833,13 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="2">
@@ -5883,7 +5879,7 @@
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>4</v>
@@ -5894,10 +5890,10 @@
         <v>41</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="2">
@@ -5937,7 +5933,7 @@
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>4</v>
@@ -5945,13 +5941,13 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="2">
@@ -5991,7 +5987,7 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>4</v>
@@ -6002,10 +5998,10 @@
         <v>38</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="2">
@@ -6045,7 +6041,7 @@
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>4</v>
@@ -6056,10 +6052,10 @@
         <v>36</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="2">
@@ -6099,7 +6095,7 @@
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>4</v>
@@ -6110,10 +6106,10 @@
         <v>34</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="2">
@@ -6153,7 +6149,7 @@
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>4</v>
@@ -6164,10 +6160,10 @@
         <v>32</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="2">
@@ -6207,7 +6203,7 @@
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>4</v>
@@ -6218,10 +6214,10 @@
         <v>30</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="2">
@@ -6261,7 +6257,7 @@
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>4</v>
@@ -6272,10 +6268,10 @@
         <v>28</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="2">
@@ -6315,7 +6311,7 @@
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>4</v>
@@ -6326,10 +6322,10 @@
         <v>26</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="2">
@@ -6369,7 +6365,7 @@
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>4</v>
@@ -6380,10 +6376,10 @@
         <v>24</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="2">
@@ -6423,7 +6419,7 @@
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>4</v>
@@ -6434,10 +6430,10 @@
         <v>22</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="2">
@@ -6477,7 +6473,7 @@
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>4</v>
@@ -6488,10 +6484,10 @@
         <v>20</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K90" s="1"/>
       <c r="L90" s="2">
@@ -6531,7 +6527,7 @@
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>4</v>
@@ -6542,10 +6538,10 @@
         <v>18</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="2">
@@ -6585,7 +6581,7 @@
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>4</v>
@@ -6596,10 +6592,10 @@
         <v>16</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="2">
@@ -6639,7 +6635,7 @@
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>4</v>
@@ -6650,10 +6646,10 @@
         <v>14</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="2">
@@ -6693,7 +6689,7 @@
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>4</v>
@@ -6704,10 +6700,10 @@
         <v>12</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="2">
@@ -6747,7 +6743,7 @@
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>4</v>
@@ -6758,10 +6754,10 @@
         <v>10</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="2">
@@ -6801,7 +6797,7 @@
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>4</v>
@@ -6812,10 +6808,10 @@
         <v>8</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="2">
@@ -6851,11 +6847,11 @@
     </row>
     <row r="97" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>4</v>
@@ -6863,13 +6859,13 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1">
@@ -6905,11 +6901,11 @@
     </row>
     <row r="98" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>4</v>
@@ -6917,13 +6913,13 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K98" s="1"/>
       <c r="L98" s="2">
@@ -6959,11 +6955,11 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>4</v>
@@ -6971,13 +6967,13 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1">
@@ -7013,11 +7009,11 @@
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>4</v>
@@ -7025,13 +7021,13 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1">
@@ -7071,7 +7067,7 @@
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>4</v>
@@ -7085,7 +7081,7 @@
         <v>2</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1">

--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/5C99CA29-BCAF-4F64-8AFC-A95DEE9CDB88/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/B94C5795-954D-4CD3-A4A1-142A238C3D35/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8A4515-4033-084B-9906-192FED15D279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E78FA9-FFB6-DE44-AE96-2FACEDC815AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="3140" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
@@ -1814,10 +1814,10 @@
   <dimension ref="A1:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomRight" activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>54</v>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>7</v>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>7</v>

--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/B94C5795-954D-4CD3-A4A1-142A238C3D35/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/C5DDA3E0-626E-435C-984B-AD2EA0E8703C/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E78FA9-FFB6-DE44-AE96-2FACEDC815AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70C81B3-9572-3141-BF03-9440BDE211E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="3140" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
+    <workbookView xWindow="2360" yWindow="3280" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="417">
   <si>
     <t>T</t>
   </si>
@@ -1149,9 +1149,6 @@
     <t>raw_Atauschii/raw_AS60/AS60.final.fasta</t>
   </si>
   <si>
-    <t>raw_Atauschii/raw_AS60/AS60.gff</t>
-  </si>
-  <si>
     <t>B73 RefGen_v5</t>
   </si>
   <si>
@@ -1270,13 +1267,31 @@
   </si>
   <si>
     <t>B73v4</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/raw_AS60/final.as60.gene.gff3</t>
+  </si>
+  <si>
+    <t>Taestivum_z</t>
+  </si>
+  <si>
+    <t>Triticum aestivum synthetic</t>
+  </si>
+  <si>
+    <t>Taz</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/raw_AS60/combine_Ta_genome.fa</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/raw_AS60/combine_Ta_genome.gff3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1294,6 +1309,13 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1379,7 +1401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1397,11 +1419,28 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1811,13 +1850,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L94" sqref="L94"/>
+      <selection pane="bottomRight" activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3383,7 +3422,9 @@
       <c r="N29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="P29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3393,7 +3434,9 @@
         <v>0</v>
       </c>
       <c r="T29" s="1"/>
-      <c r="U29" s="6"/>
+      <c r="U29" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="V29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3814,29 +3857,29 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>293</v>
+      <c r="A39" s="15" t="s">
+        <v>412</v>
       </c>
       <c r="B39" t="s">
         <v>324</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>275</v>
+        <v>413</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>311</v>
+        <v>414</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="1">
-        <v>50</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="J39" s="1" t="s">
         <v>159</v>
       </c>
@@ -3850,6 +3893,21 @@
       <c r="N39" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="O39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U39" t="s">
+        <v>0</v>
+      </c>
+      <c r="V39" t="s">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>0</v>
+      </c>
       <c r="X39" s="1"/>
       <c r="Y39" s="1" t="s">
         <v>0</v>
@@ -3859,17 +3917,17 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>279</v>
+      <c r="A40" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="B40" t="s">
         <v>324</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>66</v>
@@ -3878,7 +3936,7 @@
         <v>50</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3905,16 +3963,16 @@
     </row>
     <row r="41" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B41" t="s">
         <v>324</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>66</v>
@@ -3950,16 +4008,16 @@
     </row>
     <row r="42" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B42" t="s">
         <v>324</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>66</v>
@@ -3995,16 +4053,16 @@
     </row>
     <row r="43" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s">
         <v>324</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>66</v>
@@ -4040,16 +4098,16 @@
     </row>
     <row r="44" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B44" t="s">
         <v>324</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>66</v>
@@ -4058,7 +4116,7 @@
         <v>50</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -4085,16 +4143,16 @@
     </row>
     <row r="45" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B45" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>66</v>
@@ -4103,7 +4161,7 @@
         <v>50</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -4129,29 +4187,29 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
-        <v>325</v>
+      <c r="A46" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="B46" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>371</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F46" s="1">
+        <v>50</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
         <v>159</v>
       </c>
@@ -4160,27 +4218,9 @@
         <v>1000</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>340</v>
+        <v>66</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X46" s="1"/>
@@ -4193,16 +4233,16 @@
     </row>
     <row r="47" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B47" t="s">
         <v>320</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
@@ -4210,20 +4250,20 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K47" s="1"/>
-      <c r="L47" s="2">
+      <c r="L47" s="1">
         <v>1000</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>66</v>
+        <v>340</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>0</v>
@@ -4231,16 +4271,21 @@
       <c r="O47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
+      <c r="P47" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="S47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T47" s="1"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
+      <c r="T47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="X47" s="1"/>
       <c r="Y47" s="1" t="s">
         <v>0</v>
@@ -4251,16 +4296,16 @@
     </row>
     <row r="48" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s">
         <v>320</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>6</v>
@@ -4268,16 +4313,16 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K48" s="1"/>
-      <c r="L48" s="1">
+      <c r="L48" s="2">
         <v>1000</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -4289,6 +4334,16 @@
       <c r="O48" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1" t="s">
         <v>0</v>
@@ -4299,16 +4354,16 @@
     </row>
     <row r="49" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s">
         <v>320</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>6</v>
@@ -4316,10 +4371,10 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>159</v>
@@ -4347,16 +4402,16 @@
     </row>
     <row r="50" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s">
         <v>320</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
@@ -4364,10 +4419,10 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>159</v>
@@ -4395,16 +4450,16 @@
     </row>
     <row r="51" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s">
         <v>320</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>6</v>
@@ -4412,10 +4467,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>159</v>
@@ -4443,16 +4498,16 @@
     </row>
     <row r="52" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s">
         <v>320</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
@@ -4460,10 +4515,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>159</v>
@@ -4491,16 +4546,16 @@
     </row>
     <row r="53" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B53" t="s">
         <v>320</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
@@ -4508,10 +4563,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>159</v>
@@ -4539,16 +4594,16 @@
     </row>
     <row r="54" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B54" t="s">
         <v>320</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>6</v>
@@ -4556,10 +4611,10 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>159</v>
@@ -4587,16 +4642,16 @@
     </row>
     <row r="55" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B55" t="s">
         <v>320</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>6</v>
@@ -4604,10 +4659,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>159</v>
@@ -4635,16 +4690,16 @@
     </row>
     <row r="56" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B56" t="s">
         <v>320</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
@@ -4652,10 +4707,10 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>159</v>
@@ -4683,16 +4738,16 @@
     </row>
     <row r="57" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B57" t="s">
         <v>320</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>6</v>
@@ -4700,10 +4755,10 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>159</v>
@@ -4730,17 +4785,17 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
-        <v>341</v>
+      <c r="A58" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="B58" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>6</v>
@@ -4748,16 +4803,16 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K58" s="1"/>
-      <c r="L58" s="2">
+      <c r="L58" s="1">
         <v>1000</v>
       </c>
       <c r="M58" s="1" t="s">
@@ -4769,14 +4824,6 @@
       <c r="O58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1" t="s">
         <v>0</v>
@@ -4787,16 +4834,16 @@
     </row>
     <row r="59" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B59" t="s">
         <v>322</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
@@ -4804,16 +4851,16 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K59" s="1"/>
-      <c r="L59" s="1">
+      <c r="L59" s="2">
         <v>1000</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -4825,6 +4872,14 @@
       <c r="O59" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1" t="s">
         <v>0</v>
@@ -4835,16 +4890,16 @@
     </row>
     <row r="60" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B60" t="s">
         <v>322</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>6</v>
@@ -4852,10 +4907,10 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>159</v>
@@ -4883,16 +4938,16 @@
     </row>
     <row r="61" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B61" t="s">
         <v>322</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>6</v>
@@ -4900,10 +4955,10 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>159</v>
@@ -4930,17 +4985,17 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
-        <v>342</v>
+      <c r="A62" s="13" t="s">
+        <v>345</v>
       </c>
       <c r="B62" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>6</v>
@@ -4948,16 +5003,16 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K62" s="1"/>
-      <c r="L62" s="2">
+      <c r="L62" s="1">
         <v>1000</v>
       </c>
       <c r="M62" s="1" t="s">
@@ -4969,14 +5024,6 @@
       <c r="O62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1" t="s">
         <v>0</v>
@@ -4987,16 +5034,16 @@
     </row>
     <row r="63" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B63" t="s">
         <v>343</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>6</v>
@@ -5004,16 +5051,16 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K63" s="1"/>
-      <c r="L63" s="1">
+      <c r="L63" s="2">
         <v>1000</v>
       </c>
       <c r="M63" s="1" t="s">
@@ -5025,6 +5072,14 @@
       <c r="O63" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1" t="s">
         <v>0</v>
@@ -5035,16 +5090,16 @@
     </row>
     <row r="64" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B64" t="s">
         <v>343</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>6</v>
@@ -5052,10 +5107,10 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>159</v>
@@ -5083,16 +5138,16 @@
     </row>
     <row r="65" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B65" t="s">
         <v>343</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>6</v>
@@ -5100,10 +5155,10 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>159</v>
@@ -5130,32 +5185,35 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>70</v>
+      <c r="A66" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B66" t="s">
+        <v>343</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F66" s="1">
-        <v>41</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="J66" s="1" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="K66" s="1"/>
-      <c r="L66" s="2">
-        <v>10000</v>
+      <c r="L66" s="1">
+        <v>1000</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>66</v>
@@ -5164,28 +5222,6 @@
         <v>0</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X66" s="1"/>
@@ -5197,20 +5233,20 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>69</v>
+      <c r="A67" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>411</v>
+        <v>161</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F67" s="1">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>67</v>
@@ -5218,7 +5254,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="2">
@@ -5265,25 +5301,25 @@
     </row>
     <row r="68" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D68" s="1" t="s">
-        <v>165</v>
+        <v>410</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="F68" s="1">
+        <v>50</v>
+      </c>
       <c r="G68" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
         <v>159</v>
       </c>
@@ -5292,7 +5328,7 @@
         <v>10000</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>0</v>
@@ -5331,23 +5367,25 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>65</v>
+      <c r="A69" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="H69" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>159</v>
@@ -5357,7 +5395,7 @@
         <v>10000</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>0</v>
@@ -5365,18 +5403,28 @@
       <c r="O69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
+      <c r="P69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="R69" s="1"/>
       <c r="S69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
+      <c r="T69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W69" s="1"/>
+      <c r="W69" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="X69" s="1"/>
       <c r="Y69" s="1" t="s">
         <v>0</v>
@@ -5387,11 +5435,11 @@
     </row>
     <row r="70" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>4</v>
@@ -5399,10 +5447,10 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>159</v>
@@ -5412,7 +5460,7 @@
         <v>10000</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>0</v>
@@ -5442,11 +5490,11 @@
     </row>
     <row r="71" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>4</v>
@@ -5454,20 +5502,20 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>0</v>
@@ -5496,12 +5544,12 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>50</v>
+      <c r="A72" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>4</v>
@@ -5509,20 +5557,20 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="4" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>224</v>
+        <v>55</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>0</v>
@@ -5530,6 +5578,7 @@
       <c r="O72" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1" t="s">
@@ -5551,11 +5600,11 @@
     </row>
     <row r="73" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>4</v>
@@ -5563,10 +5612,10 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>159</v>
@@ -5605,11 +5654,11 @@
     </row>
     <row r="74" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>4</v>
@@ -5617,10 +5666,10 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="4" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>159</v>
@@ -5659,11 +5708,11 @@
     </row>
     <row r="75" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>4</v>
@@ -5671,10 +5720,10 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="4" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>159</v>
@@ -5713,11 +5762,11 @@
     </row>
     <row r="76" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>4</v>
@@ -5725,10 +5774,10 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>159</v>
@@ -5767,11 +5816,11 @@
     </row>
     <row r="77" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>4</v>
@@ -5779,10 +5828,10 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>159</v>
@@ -5821,11 +5870,11 @@
     </row>
     <row r="78" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>4</v>
@@ -5833,10 +5882,10 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>159</v>
@@ -5875,11 +5924,11 @@
     </row>
     <row r="79" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>4</v>
@@ -5887,10 +5936,10 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="4" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>159</v>
@@ -5929,11 +5978,11 @@
     </row>
     <row r="80" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>4</v>
@@ -5941,10 +5990,10 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="4" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>159</v>
@@ -5983,11 +6032,11 @@
     </row>
     <row r="81" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>4</v>
@@ -5995,10 +6044,10 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="4" t="s">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>159</v>
@@ -6037,11 +6086,11 @@
     </row>
     <row r="82" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>4</v>
@@ -6049,10 +6098,10 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>159</v>
@@ -6091,11 +6140,11 @@
     </row>
     <row r="83" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>4</v>
@@ -6103,10 +6152,10 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>159</v>
@@ -6145,11 +6194,11 @@
     </row>
     <row r="84" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>4</v>
@@ -6157,10 +6206,10 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>159</v>
@@ -6199,11 +6248,11 @@
     </row>
     <row r="85" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>4</v>
@@ -6211,10 +6260,10 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>159</v>
@@ -6253,11 +6302,11 @@
     </row>
     <row r="86" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>4</v>
@@ -6265,10 +6314,10 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>159</v>
@@ -6307,11 +6356,11 @@
     </row>
     <row r="87" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>4</v>
@@ -6319,10 +6368,10 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>159</v>
@@ -6361,11 +6410,11 @@
     </row>
     <row r="88" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>4</v>
@@ -6373,10 +6422,10 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>159</v>
@@ -6415,11 +6464,11 @@
     </row>
     <row r="89" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>4</v>
@@ -6427,10 +6476,10 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>159</v>
@@ -6469,11 +6518,11 @@
     </row>
     <row r="90" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>4</v>
@@ -6481,10 +6530,10 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>159</v>
@@ -6523,11 +6572,11 @@
     </row>
     <row r="91" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>4</v>
@@ -6535,10 +6584,10 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>159</v>
@@ -6577,11 +6626,11 @@
     </row>
     <row r="92" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>4</v>
@@ -6589,10 +6638,10 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>159</v>
@@ -6631,11 +6680,11 @@
     </row>
     <row r="93" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>4</v>
@@ -6643,10 +6692,10 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>159</v>
@@ -6685,11 +6734,11 @@
     </row>
     <row r="94" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>4</v>
@@ -6697,10 +6746,10 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>159</v>
@@ -6739,11 +6788,11 @@
     </row>
     <row r="95" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>4</v>
@@ -6751,10 +6800,10 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>159</v>
@@ -6793,11 +6842,11 @@
     </row>
     <row r="96" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>4</v>
@@ -6805,10 +6854,10 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>159</v>
@@ -6846,30 +6895,30 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="8" t="s">
-        <v>199</v>
+      <c r="A97" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>202</v>
+      <c r="H97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K97" s="1"/>
-      <c r="L97" s="1">
-        <v>1000</v>
+      <c r="L97" s="2">
+        <v>10000</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>7</v>
@@ -6900,30 +6949,30 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
-        <v>203</v>
+      <c r="A98" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>206</v>
+      <c r="H98" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K98" s="1"/>
-      <c r="L98" s="2">
-        <v>10000</v>
+      <c r="L98" s="1">
+        <v>1000</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>7</v>
@@ -6953,31 +7002,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="10" t="s">
-        <v>207</v>
+    <row r="99" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>210</v>
+      <c r="H99" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K99" s="1"/>
-      <c r="L99" s="1">
-        <v>1000</v>
+      <c r="L99" s="2">
+        <v>10000</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>7</v>
@@ -7009,11 +7058,11 @@
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>4</v>
@@ -7021,17 +7070,17 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>7</v>
@@ -7062,12 +7111,12 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>5</v>
+      <c r="A101" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>4</v>
@@ -7075,10 +7124,10 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>159</v>
@@ -7088,35 +7137,62 @@
         <v>10000</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
+      <c r="S101" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
+      <c r="V101" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
-      <c r="Y101" s="1"/>
-      <c r="Z101" s="1"/>
+      <c r="Y101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
+      <c r="H102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
+      <c r="L102" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -7131,63 +7207,100 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="Z1:Z22 B1 B22 Z27:Z45 Z66:Z101">
+  <conditionalFormatting sqref="Z1:Z22 B1 B22 Z27:Z38 Z67:Z102 Z40:Z46">
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
+      <formula>"T"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z22 B1 B22 Z27:Z38 Z67:Z102 Z40:Z46">
+    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z47:Z66">
     <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:Z22 B1 B22 Z27:Z45 Z66:Z101">
-    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z46:Z65">
-    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
-      <formula>"T"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z46:Z65">
-    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
+  <conditionalFormatting sqref="Z47:Z66">
+    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23 B23">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"T"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z23 B23">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z24 B24">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z23 B23">
+  <conditionalFormatting sqref="Z24 B24">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z24 B24">
+  <conditionalFormatting sqref="Z25 B25">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z24 B24">
+  <conditionalFormatting sqref="Z25 B25">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z25 B25">
+  <conditionalFormatting sqref="Z26 B26">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z25 B25">
+  <conditionalFormatting sqref="Z26 B26">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z26 B26">
+  <conditionalFormatting sqref="Z39">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z26 B26">
+  <conditionalFormatting sqref="Z39">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"C"</formula>
     </cfRule>

--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/C5DDA3E0-626E-435C-984B-AD2EA0E8703C/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/486C5284-E143-42A1-9BC3-A5523549CBD3/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70C81B3-9572-3141-BF03-9440BDE211E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2FD1AD-F9DC-8847-B8C0-FB6C751B09DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="3280" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
@@ -1146,9 +1146,6 @@
     <t>raw_Atauschii/Atauschii_AY17/AY17.all_gene.gff</t>
   </si>
   <si>
-    <t>raw_Atauschii/raw_AS60/AS60.final.fasta</t>
-  </si>
-  <si>
     <t>B73 RefGen_v5</t>
   </si>
   <si>
@@ -1269,9 +1266,6 @@
     <t>B73v4</t>
   </si>
   <si>
-    <t>raw_Atauschii/raw_AS60/final.as60.gene.gff3</t>
-  </si>
-  <si>
     <t>Taestivum_z</t>
   </si>
   <si>
@@ -1281,10 +1275,16 @@
     <t>Taz</t>
   </si>
   <si>
-    <t>raw_Atauschii/raw_AS60/combine_Ta_genome.fa</t>
-  </si>
-  <si>
-    <t>raw_Atauschii/raw_AS60/combine_Ta_genome.gff3</t>
+    <t>raw_Atauschii/raw_AS60/combine_Ta_genome.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/raw_AS60/combine_Ta_genome.gff3.gz</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/raw_AS60/AS60.final.fasta.gz</t>
+  </si>
+  <si>
+    <t>raw_Atauschii/raw_AS60/final.as60.gene.gff3.gz</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1856,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X29" sqref="X29"/>
+      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3858,16 +3858,16 @@
     </row>
     <row r="39" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B39" t="s">
         <v>324</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>6</v>
@@ -3875,10 +3875,10 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>159</v>
@@ -4250,10 +4250,10 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>159</v>
@@ -4313,10 +4313,10 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>159</v>
@@ -4371,10 +4371,10 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>159</v>
@@ -4419,10 +4419,10 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>159</v>
@@ -4467,10 +4467,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>159</v>
@@ -4515,10 +4515,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>159</v>
@@ -4563,10 +4563,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>159</v>
@@ -4611,10 +4611,10 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>159</v>
@@ -4659,10 +4659,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>159</v>
@@ -4707,10 +4707,10 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>159</v>
@@ -4755,10 +4755,10 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>159</v>
@@ -4803,10 +4803,10 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>159</v>
@@ -4851,10 +4851,10 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>159</v>
@@ -4907,10 +4907,10 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>159</v>
@@ -4955,10 +4955,10 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>159</v>
@@ -5003,10 +5003,10 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>159</v>
@@ -5051,10 +5051,10 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>159</v>
@@ -5107,10 +5107,10 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>159</v>
@@ -5155,10 +5155,10 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>159</v>
@@ -5203,10 +5203,10 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>159</v>
@@ -5307,7 +5307,7 @@
         <v>68</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>66</v>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>52</v>

--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/486C5284-E143-42A1-9BC3-A5523549CBD3/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/58E72BEB-4344-407E-9B3F-4F5E92EC7436/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2FD1AD-F9DC-8847-B8C0-FB6C751B09DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69645E4-4996-8846-9864-0933ED6C63CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="3280" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="416">
   <si>
     <t>T</t>
   </si>
@@ -1054,9 +1054,6 @@
   </si>
   <si>
     <t>al878</t>
-  </si>
-  <si>
-    <t>nogene_noexon</t>
   </si>
   <si>
     <t>Taestivum_A</t>
@@ -1856,7 +1853,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2706,10 +2703,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>218</v>
@@ -2755,10 +2752,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>159</v>
@@ -3065,7 +3062,7 @@
     </row>
     <row r="23" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>320</v>
@@ -3074,7 +3071,7 @@
         <v>253</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
@@ -3082,10 +3079,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>159</v>
@@ -3123,7 +3120,7 @@
     </row>
     <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>320</v>
@@ -3132,7 +3129,7 @@
         <v>253</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
@@ -3140,10 +3137,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>159</v>
@@ -3181,7 +3178,7 @@
     </row>
     <row r="25" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>320</v>
@@ -3190,7 +3187,7 @@
         <v>253</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>
@@ -3198,10 +3195,10 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>159</v>
@@ -3239,7 +3236,7 @@
     </row>
     <row r="26" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>320</v>
@@ -3248,7 +3245,7 @@
         <v>253</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
@@ -3256,10 +3253,10 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>159</v>
@@ -3858,16 +3855,16 @@
     </row>
     <row r="39" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B39" t="s">
         <v>324</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>6</v>
@@ -3875,10 +3872,10 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>159</v>
@@ -4250,10 +4247,10 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>159</v>
@@ -4263,7 +4260,7 @@
         <v>1000</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>0</v>
@@ -4313,10 +4310,10 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>159</v>
@@ -4371,10 +4368,10 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>159</v>
@@ -4419,10 +4416,10 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>159</v>
@@ -4467,10 +4464,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>159</v>
@@ -4515,10 +4512,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>159</v>
@@ -4563,10 +4560,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>159</v>
@@ -4611,10 +4608,10 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>159</v>
@@ -4659,10 +4656,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>159</v>
@@ -4707,10 +4704,10 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>159</v>
@@ -4755,10 +4752,10 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>159</v>
@@ -4803,10 +4800,10 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>159</v>
@@ -4834,7 +4831,7 @@
     </row>
     <row r="59" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B59" t="s">
         <v>322</v>
@@ -4851,10 +4848,10 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>159</v>
@@ -4890,7 +4887,7 @@
     </row>
     <row r="60" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B60" t="s">
         <v>322</v>
@@ -4907,10 +4904,10 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>159</v>
@@ -4938,7 +4935,7 @@
     </row>
     <row r="61" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B61" t="s">
         <v>322</v>
@@ -4955,10 +4952,10 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>159</v>
@@ -4986,7 +4983,7 @@
     </row>
     <row r="62" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B62" t="s">
         <v>322</v>
@@ -5003,10 +5000,10 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>159</v>
@@ -5034,10 +5031,10 @@
     </row>
     <row r="63" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B63" t="s">
         <v>342</v>
-      </c>
-      <c r="B63" t="s">
-        <v>343</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>250</v>
@@ -5051,10 +5048,10 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>159</v>
@@ -5090,10 +5087,10 @@
     </row>
     <row r="64" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>275</v>
@@ -5107,10 +5104,10 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>159</v>
@@ -5138,10 +5135,10 @@
     </row>
     <row r="65" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>274</v>
@@ -5155,10 +5152,10 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>159</v>
@@ -5186,10 +5183,10 @@
     </row>
     <row r="66" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>276</v>
@@ -5203,10 +5200,10 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>159</v>
@@ -5307,7 +5304,7 @@
         <v>68</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>66</v>
@@ -5379,7 +5376,7 @@
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>52</v>

--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/58E72BEB-4344-407E-9B3F-4F5E92EC7436/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/9B816033-451A-4E7C-A288-2144FC3B3460/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69645E4-4996-8846-9864-0933ED6C63CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4B8A4E-0E9B-8C43-9C9C-EDCA0FE73380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="3280" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="416">
   <si>
     <t>T</t>
   </si>
@@ -1850,10 +1850,10 @@
   <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
+      <selection pane="bottomRight" activeCell="U67" sqref="U67:U101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5472,7 +5472,9 @@
         <v>0</v>
       </c>
       <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
+      <c r="U70" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V70" s="1" t="s">
         <v>0</v>
       </c>
@@ -5527,7 +5529,9 @@
         <v>0</v>
       </c>
       <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
+      <c r="U71" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V71" s="1" t="s">
         <v>0</v>
       </c>
@@ -5582,7 +5586,9 @@
         <v>0</v>
       </c>
       <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
+      <c r="U72" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V72" s="1" t="s">
         <v>0</v>
       </c>
@@ -5636,7 +5642,9 @@
         <v>0</v>
       </c>
       <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
+      <c r="U73" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V73" s="1" t="s">
         <v>0</v>
       </c>
@@ -5690,7 +5698,9 @@
         <v>0</v>
       </c>
       <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
+      <c r="U74" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V74" s="1" t="s">
         <v>0</v>
       </c>
@@ -5744,7 +5754,9 @@
         <v>0</v>
       </c>
       <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
+      <c r="U75" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V75" s="1" t="s">
         <v>0</v>
       </c>
@@ -5798,7 +5810,9 @@
         <v>0</v>
       </c>
       <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
+      <c r="U76" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V76" s="1" t="s">
         <v>0</v>
       </c>
@@ -5852,7 +5866,9 @@
         <v>0</v>
       </c>
       <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
+      <c r="U77" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V77" s="1" t="s">
         <v>0</v>
       </c>
@@ -5906,7 +5922,9 @@
         <v>0</v>
       </c>
       <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
+      <c r="U78" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V78" s="1" t="s">
         <v>0</v>
       </c>
@@ -5960,7 +5978,9 @@
         <v>0</v>
       </c>
       <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
+      <c r="U79" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V79" s="1" t="s">
         <v>0</v>
       </c>
@@ -6014,7 +6034,9 @@
         <v>0</v>
       </c>
       <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
+      <c r="U80" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V80" s="1" t="s">
         <v>0</v>
       </c>
@@ -6068,7 +6090,9 @@
         <v>0</v>
       </c>
       <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
+      <c r="U81" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V81" s="1" t="s">
         <v>0</v>
       </c>
@@ -6122,7 +6146,9 @@
         <v>0</v>
       </c>
       <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
+      <c r="U82" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V82" s="1" t="s">
         <v>0</v>
       </c>
@@ -6176,7 +6202,9 @@
         <v>0</v>
       </c>
       <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
+      <c r="U83" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V83" s="1" t="s">
         <v>0</v>
       </c>
@@ -6230,7 +6258,9 @@
         <v>0</v>
       </c>
       <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
+      <c r="U84" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V84" s="1" t="s">
         <v>0</v>
       </c>
@@ -6284,7 +6314,9 @@
         <v>0</v>
       </c>
       <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
+      <c r="U85" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V85" s="1" t="s">
         <v>0</v>
       </c>
@@ -6338,7 +6370,9 @@
         <v>0</v>
       </c>
       <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
+      <c r="U86" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V86" s="1" t="s">
         <v>0</v>
       </c>
@@ -6392,7 +6426,9 @@
         <v>0</v>
       </c>
       <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
+      <c r="U87" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V87" s="1" t="s">
         <v>0</v>
       </c>
@@ -6446,7 +6482,9 @@
         <v>0</v>
       </c>
       <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
+      <c r="U88" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V88" s="1" t="s">
         <v>0</v>
       </c>
@@ -6500,7 +6538,9 @@
         <v>0</v>
       </c>
       <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
+      <c r="U89" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V89" s="1" t="s">
         <v>0</v>
       </c>
@@ -6554,7 +6594,9 @@
         <v>0</v>
       </c>
       <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
+      <c r="U90" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V90" s="1" t="s">
         <v>0</v>
       </c>
@@ -6608,7 +6650,9 @@
         <v>0</v>
       </c>
       <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
+      <c r="U91" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V91" s="1" t="s">
         <v>0</v>
       </c>
@@ -6662,7 +6706,9 @@
         <v>0</v>
       </c>
       <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
+      <c r="U92" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V92" s="1" t="s">
         <v>0</v>
       </c>
@@ -6716,7 +6762,9 @@
         <v>0</v>
       </c>
       <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
+      <c r="U93" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V93" s="1" t="s">
         <v>0</v>
       </c>
@@ -6770,7 +6818,9 @@
         <v>0</v>
       </c>
       <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
+      <c r="U94" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V94" s="1" t="s">
         <v>0</v>
       </c>
@@ -6824,7 +6874,9 @@
         <v>0</v>
       </c>
       <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
+      <c r="U95" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V95" s="1" t="s">
         <v>0</v>
       </c>
@@ -6878,7 +6930,9 @@
         <v>0</v>
       </c>
       <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
+      <c r="U96" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V96" s="1" t="s">
         <v>0</v>
       </c>
@@ -6932,7 +6986,9 @@
         <v>0</v>
       </c>
       <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
+      <c r="U97" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V97" s="1" t="s">
         <v>0</v>
       </c>
@@ -6986,7 +7042,9 @@
         <v>0</v>
       </c>
       <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
+      <c r="U98" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V98" s="1" t="s">
         <v>0</v>
       </c>
@@ -7040,7 +7098,9 @@
         <v>0</v>
       </c>
       <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
+      <c r="U99" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V99" s="1" t="s">
         <v>0</v>
       </c>
@@ -7094,7 +7154,9 @@
         <v>0</v>
       </c>
       <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
+      <c r="U100" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V100" s="1" t="s">
         <v>0</v>
       </c>
@@ -7148,7 +7210,9 @@
         <v>0</v>
       </c>
       <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
+      <c r="U101" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="V101" s="1" t="s">
         <v>0</v>
       </c>

--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/9B816033-451A-4E7C-A288-2144FC3B3460/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/A8879A6C-9ED0-4F88-A916-4261A4375168/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4B8A4E-0E9B-8C43-9C9C-EDCA0FE73380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0444EC26-B753-7341-A23B-9A7B786A6635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="3280" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
+    <workbookView xWindow="2360" yWindow="3140" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="421">
   <si>
     <t>T</t>
   </si>
@@ -1282,6 +1282,21 @@
   </si>
   <si>
     <t>raw_Atauschii/raw_AS60/final.as60.gene.gff3.gz</t>
+  </si>
+  <si>
+    <t>Taestivum_AB</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_AB.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_AB.gff.gz</t>
+  </si>
+  <si>
+    <t>TaD</t>
+  </si>
+  <si>
+    <t>TaAB</t>
   </si>
 </sst>
 </file>
@@ -1847,13 +1862,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z103"/>
+  <dimension ref="A1:Z104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U67" sqref="U67:U101"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2985,8 +3000,12 @@
         <v>0</v>
       </c>
       <c r="T21" s="1"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="1"/>
+      <c r="U21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1" t="s">
@@ -3045,7 +3064,9 @@
         <v>0</v>
       </c>
       <c r="T22" s="1"/>
-      <c r="U22" s="6"/>
+      <c r="U22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="V22" s="1" t="s">
         <v>0</v>
       </c>
@@ -3374,6 +3395,12 @@
       <c r="N28" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="U28" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>0</v>
+      </c>
       <c r="X28" s="1"/>
       <c r="Y28" s="1" t="s">
         <v>0</v>
@@ -3383,34 +3410,32 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>249</v>
+      <c r="A29" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="B29" t="s">
-        <v>324</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>251</v>
+        <v>420</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="1">
-        <v>50</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="J29" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>1000</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -3422,22 +3447,16 @@
       <c r="O29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="P29" t="s">
+        <v>0</v>
+      </c>
       <c r="S29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T29" s="1"/>
-      <c r="U29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W29" s="1" t="s">
+      <c r="U29" t="s">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
         <v>0</v>
       </c>
       <c r="X29" s="1"/>
@@ -3450,16 +3469,16 @@
     </row>
     <row r="30" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s">
         <v>324</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>66</v>
@@ -3468,7 +3487,7 @@
         <v>50</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3476,13 +3495,34 @@
         <v>159</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="1">
+      <c r="L30" s="2">
         <v>1000</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>66</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X30" s="1"/>
@@ -3495,16 +3535,16 @@
     </row>
     <row r="31" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s">
         <v>324</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>66</v>
@@ -3540,16 +3580,16 @@
     </row>
     <row r="32" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s">
         <v>324</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>66</v>
@@ -3585,16 +3625,16 @@
     </row>
     <row r="33" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s">
         <v>324</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>66</v>
@@ -3630,16 +3670,16 @@
     </row>
     <row r="34" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s">
         <v>324</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>66</v>
@@ -3675,16 +3715,16 @@
     </row>
     <row r="35" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s">
         <v>324</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>66</v>
@@ -3720,16 +3760,16 @@
     </row>
     <row r="36" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s">
         <v>324</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>66</v>
@@ -3765,16 +3805,16 @@
     </row>
     <row r="37" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s">
         <v>324</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>66</v>
@@ -3810,16 +3850,16 @@
     </row>
     <row r="38" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s">
         <v>324</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>66</v>
@@ -3854,29 +3894,29 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>409</v>
+      <c r="A39" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="B39" t="s">
         <v>324</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>410</v>
+        <v>272</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>411</v>
+        <v>308</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>413</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F39" s="1">
+        <v>50</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
         <v>159</v>
       </c>
@@ -3890,21 +3930,6 @@
       <c r="N39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U39" t="s">
-        <v>0</v>
-      </c>
-      <c r="V39" t="s">
-        <v>0</v>
-      </c>
-      <c r="W39" t="s">
-        <v>0</v>
-      </c>
       <c r="X39" s="1"/>
       <c r="Y39" s="1" t="s">
         <v>0</v>
@@ -3914,29 +3939,29 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>293</v>
+      <c r="A40" s="15" t="s">
+        <v>409</v>
       </c>
       <c r="B40" t="s">
         <v>324</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>275</v>
+        <v>410</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="1">
-        <v>50</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="J40" s="1" t="s">
         <v>159</v>
       </c>
@@ -3950,6 +3975,21 @@
       <c r="N40" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="O40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U40" t="s">
+        <v>0</v>
+      </c>
+      <c r="V40" t="s">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>0</v>
+      </c>
       <c r="X40" s="1"/>
       <c r="Y40" s="1" t="s">
         <v>0</v>
@@ -3959,17 +3999,17 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>279</v>
+      <c r="A41" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="B41" t="s">
         <v>324</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>66</v>
@@ -3978,7 +4018,7 @@
         <v>50</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -4005,16 +4045,16 @@
     </row>
     <row r="42" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B42" t="s">
         <v>324</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>66</v>
@@ -4050,16 +4090,16 @@
     </row>
     <row r="43" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B43" t="s">
         <v>324</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>66</v>
@@ -4095,16 +4135,16 @@
     </row>
     <row r="44" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s">
         <v>324</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>66</v>
@@ -4140,16 +4180,16 @@
     </row>
     <row r="45" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B45" t="s">
         <v>324</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>66</v>
@@ -4158,7 +4198,7 @@
         <v>50</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -4185,16 +4225,16 @@
     </row>
     <row r="46" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B46" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>66</v>
@@ -4203,7 +4243,7 @@
         <v>50</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -4229,29 +4269,29 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
-        <v>325</v>
+      <c r="A47" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="B47" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>415</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F47" s="1">
+        <v>50</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
         <v>159</v>
       </c>
@@ -4260,27 +4300,9 @@
         <v>1000</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>326</v>
+        <v>66</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X47" s="1"/>
@@ -4293,16 +4315,16 @@
     </row>
     <row r="48" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B48" t="s">
         <v>320</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>6</v>
@@ -4310,20 +4332,20 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K48" s="1"/>
-      <c r="L48" s="2">
+      <c r="L48" s="1">
         <v>1000</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>0</v>
@@ -4331,16 +4353,19 @@
       <c r="O48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
+      <c r="P48" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="S48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T48" s="1"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
+      <c r="U48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="X48" s="1"/>
       <c r="Y48" s="1" t="s">
         <v>0</v>
@@ -4351,16 +4376,16 @@
     </row>
     <row r="49" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s">
         <v>320</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>296</v>
+        <v>419</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>6</v>
@@ -4368,16 +4393,16 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K49" s="1"/>
-      <c r="L49" s="1">
+      <c r="L49" s="2">
         <v>1000</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -4389,6 +4414,22 @@
       <c r="O49" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="P49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1" t="s">
         <v>0</v>
@@ -4399,16 +4440,16 @@
     </row>
     <row r="50" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s">
         <v>320</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
@@ -4416,10 +4457,10 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>159</v>
@@ -4447,16 +4488,16 @@
     </row>
     <row r="51" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B51" t="s">
         <v>320</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>6</v>
@@ -4464,10 +4505,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>159</v>
@@ -4495,16 +4536,16 @@
     </row>
     <row r="52" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s">
         <v>320</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
@@ -4512,10 +4553,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>159</v>
@@ -4543,16 +4584,16 @@
     </row>
     <row r="53" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s">
         <v>320</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
@@ -4560,10 +4601,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>159</v>
@@ -4591,16 +4632,16 @@
     </row>
     <row r="54" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B54" t="s">
         <v>320</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>6</v>
@@ -4608,10 +4649,10 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>159</v>
@@ -4639,16 +4680,16 @@
     </row>
     <row r="55" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B55" t="s">
         <v>320</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>6</v>
@@ -4656,10 +4697,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>159</v>
@@ -4687,16 +4728,16 @@
     </row>
     <row r="56" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B56" t="s">
         <v>320</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
@@ -4704,10 +4745,10 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>159</v>
@@ -4735,16 +4776,16 @@
     </row>
     <row r="57" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B57" t="s">
         <v>320</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>6</v>
@@ -4752,10 +4793,10 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>159</v>
@@ -4783,16 +4824,16 @@
     </row>
     <row r="58" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B58" t="s">
         <v>320</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>6</v>
@@ -4800,10 +4841,10 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>159</v>
@@ -4830,17 +4871,17 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
-        <v>340</v>
+      <c r="A59" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="B59" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
@@ -4848,16 +4889,16 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K59" s="1"/>
-      <c r="L59" s="2">
+      <c r="L59" s="1">
         <v>1000</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -4869,14 +4910,6 @@
       <c r="O59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1" t="s">
         <v>0</v>
@@ -4887,16 +4920,16 @@
     </row>
     <row r="60" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B60" t="s">
         <v>322</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>6</v>
@@ -4904,16 +4937,16 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K60" s="1"/>
-      <c r="L60" s="1">
+      <c r="L60" s="2">
         <v>1000</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -4925,6 +4958,14 @@
       <c r="O60" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1" t="s">
         <v>0</v>
@@ -4935,16 +4976,16 @@
     </row>
     <row r="61" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B61" t="s">
         <v>322</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>6</v>
@@ -4952,10 +4993,10 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>159</v>
@@ -4983,16 +5024,16 @@
     </row>
     <row r="62" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B62" t="s">
         <v>322</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>6</v>
@@ -5000,10 +5041,10 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>159</v>
@@ -5030,17 +5071,17 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
-        <v>341</v>
+      <c r="A63" s="13" t="s">
+        <v>344</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>6</v>
@@ -5048,16 +5089,16 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K63" s="1"/>
-      <c r="L63" s="2">
+      <c r="L63" s="1">
         <v>1000</v>
       </c>
       <c r="M63" s="1" t="s">
@@ -5069,14 +5110,6 @@
       <c r="O63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1" t="s">
         <v>0</v>
@@ -5087,16 +5120,16 @@
     </row>
     <row r="64" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B64" t="s">
         <v>342</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>6</v>
@@ -5104,16 +5137,16 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K64" s="1"/>
-      <c r="L64" s="1">
+      <c r="L64" s="2">
         <v>1000</v>
       </c>
       <c r="M64" s="1" t="s">
@@ -5125,6 +5158,14 @@
       <c r="O64" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1" t="s">
         <v>0</v>
@@ -5135,16 +5176,16 @@
     </row>
     <row r="65" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B65" t="s">
         <v>342</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>6</v>
@@ -5152,10 +5193,10 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>159</v>
@@ -5183,16 +5224,16 @@
     </row>
     <row r="66" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B66" t="s">
         <v>342</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>6</v>
@@ -5200,10 +5241,10 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>159</v>
@@ -5230,32 +5271,35 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>70</v>
+      <c r="A67" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B67" t="s">
+        <v>342</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F67" s="1">
-        <v>41</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="J67" s="1" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="K67" s="1"/>
-      <c r="L67" s="2">
-        <v>10000</v>
+      <c r="L67" s="1">
+        <v>1000</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>66</v>
@@ -5264,28 +5308,6 @@
         <v>0</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X67" s="1"/>
@@ -5297,20 +5319,20 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>69</v>
+      <c r="A68" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>408</v>
+        <v>161</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F68" s="1">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>67</v>
@@ -5318,7 +5340,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="2">
@@ -5365,25 +5387,25 @@
     </row>
     <row r="69" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D69" s="1" t="s">
-        <v>165</v>
+        <v>408</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="F69" s="1">
+        <v>50</v>
+      </c>
       <c r="G69" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
         <v>159</v>
       </c>
@@ -5392,7 +5414,7 @@
         <v>10000</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>0</v>
@@ -5431,23 +5453,25 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>65</v>
+      <c r="A70" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="H70" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>159</v>
@@ -5457,7 +5481,7 @@
         <v>10000</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>0</v>
@@ -5465,20 +5489,28 @@
       <c r="O70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
+      <c r="P70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="R70" s="1"/>
       <c r="S70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T70" s="1"/>
+      <c r="T70" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="U70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W70" s="1"/>
+      <c r="W70" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="X70" s="1"/>
       <c r="Y70" s="1" t="s">
         <v>0</v>
@@ -5489,11 +5521,11 @@
     </row>
     <row r="71" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>4</v>
@@ -5501,10 +5533,10 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>159</v>
@@ -5514,7 +5546,7 @@
         <v>10000</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>0</v>
@@ -5546,11 +5578,11 @@
     </row>
     <row r="72" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>4</v>
@@ -5558,20 +5590,20 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>0</v>
@@ -5602,12 +5634,12 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>50</v>
+      <c r="A73" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>4</v>
@@ -5615,20 +5647,20 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="4" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>224</v>
+        <v>55</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>0</v>
@@ -5636,6 +5668,7 @@
       <c r="O73" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1" t="s">
@@ -5659,11 +5692,11 @@
     </row>
     <row r="74" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>4</v>
@@ -5671,10 +5704,10 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>159</v>
@@ -5715,11 +5748,11 @@
     </row>
     <row r="75" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>4</v>
@@ -5727,10 +5760,10 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="4" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>159</v>
@@ -5771,11 +5804,11 @@
     </row>
     <row r="76" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>4</v>
@@ -5783,10 +5816,10 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="4" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>159</v>
@@ -5827,11 +5860,11 @@
     </row>
     <row r="77" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>4</v>
@@ -5839,10 +5872,10 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>159</v>
@@ -5883,11 +5916,11 @@
     </row>
     <row r="78" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>4</v>
@@ -5895,10 +5928,10 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>159</v>
@@ -5939,11 +5972,11 @@
     </row>
     <row r="79" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>4</v>
@@ -5951,10 +5984,10 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>159</v>
@@ -5995,11 +6028,11 @@
     </row>
     <row r="80" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>4</v>
@@ -6007,10 +6040,10 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="4" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>159</v>
@@ -6051,11 +6084,11 @@
     </row>
     <row r="81" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>4</v>
@@ -6063,10 +6096,10 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="4" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>159</v>
@@ -6107,11 +6140,11 @@
     </row>
     <row r="82" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>4</v>
@@ -6119,10 +6152,10 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="4" t="s">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>159</v>
@@ -6163,11 +6196,11 @@
     </row>
     <row r="83" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>4</v>
@@ -6175,10 +6208,10 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>159</v>
@@ -6219,11 +6252,11 @@
     </row>
     <row r="84" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>4</v>
@@ -6231,10 +6264,10 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>159</v>
@@ -6275,11 +6308,11 @@
     </row>
     <row r="85" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>4</v>
@@ -6287,10 +6320,10 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>159</v>
@@ -6331,11 +6364,11 @@
     </row>
     <row r="86" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>4</v>
@@ -6343,10 +6376,10 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>159</v>
@@ -6387,11 +6420,11 @@
     </row>
     <row r="87" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>4</v>
@@ -6399,10 +6432,10 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>159</v>
@@ -6443,11 +6476,11 @@
     </row>
     <row r="88" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>4</v>
@@ -6455,10 +6488,10 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>159</v>
@@ -6499,11 +6532,11 @@
     </row>
     <row r="89" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>4</v>
@@ -6511,10 +6544,10 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>159</v>
@@ -6555,11 +6588,11 @@
     </row>
     <row r="90" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>4</v>
@@ -6567,10 +6600,10 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>159</v>
@@ -6611,11 +6644,11 @@
     </row>
     <row r="91" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>4</v>
@@ -6623,10 +6656,10 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>159</v>
@@ -6667,11 +6700,11 @@
     </row>
     <row r="92" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>4</v>
@@ -6679,10 +6712,10 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>159</v>
@@ -6723,11 +6756,11 @@
     </row>
     <row r="93" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>4</v>
@@ -6735,10 +6768,10 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>159</v>
@@ -6779,11 +6812,11 @@
     </row>
     <row r="94" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>4</v>
@@ -6791,10 +6824,10 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>159</v>
@@ -6835,11 +6868,11 @@
     </row>
     <row r="95" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>4</v>
@@ -6847,10 +6880,10 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>159</v>
@@ -6891,11 +6924,11 @@
     </row>
     <row r="96" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>4</v>
@@ -6903,10 +6936,10 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>159</v>
@@ -6947,11 +6980,11 @@
     </row>
     <row r="97" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>4</v>
@@ -6959,10 +6992,10 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>159</v>
@@ -7002,30 +7035,30 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="8" t="s">
-        <v>199</v>
+      <c r="A98" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>202</v>
+      <c r="H98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K98" s="1"/>
-      <c r="L98" s="1">
-        <v>1000</v>
+      <c r="L98" s="2">
+        <v>10000</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>7</v>
@@ -7058,30 +7091,30 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="9" t="s">
-        <v>203</v>
+      <c r="A99" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>206</v>
+      <c r="H99" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K99" s="1"/>
-      <c r="L99" s="2">
-        <v>10000</v>
+      <c r="L99" s="1">
+        <v>1000</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>7</v>
@@ -7113,31 +7146,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="10" t="s">
-        <v>207</v>
+    <row r="100" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>210</v>
+      <c r="H100" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K100" s="1"/>
-      <c r="L100" s="1">
-        <v>1000</v>
+      <c r="L100" s="2">
+        <v>10000</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>7</v>
@@ -7171,11 +7204,11 @@
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>4</v>
@@ -7183,17 +7216,17 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>159</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>7</v>
@@ -7226,12 +7259,12 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>5</v>
+      <c r="A102" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>4</v>
@@ -7239,10 +7272,10 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>159</v>
@@ -7252,35 +7285,64 @@
         <v>10000</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
+      <c r="S102" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
+      <c r="U102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V102" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
-      <c r="Y102" s="1"/>
-      <c r="Z102" s="1"/>
+      <c r="Y102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="H103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
+      <c r="L103" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -7295,23 +7357,50 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="Z1:Z22 B1 B22 Z27:Z38 Z67:Z102 Z40:Z46">
+  <conditionalFormatting sqref="Z1:Z22 B1 B22 Z27:Z39 Z68:Z103 Z41:Z47">
     <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:Z22 B1 B22 Z27:Z38 Z67:Z102 Z40:Z46">
+  <conditionalFormatting sqref="Z1:Z22 B1 B22 Z27:Z39 Z68:Z103 Z41:Z47">
     <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z47:Z66">
+  <conditionalFormatting sqref="Z48:Z67">
     <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z47:Z66">
+  <conditionalFormatting sqref="Z48:Z67">
     <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -7356,12 +7445,12 @@
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z39">
+  <conditionalFormatting sqref="Z40">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z39">
+  <conditionalFormatting sqref="Z40">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"C"</formula>
     </cfRule>

--- a/nf/genomes.xlsx
+++ b/nf/genomes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/A8879A6C-9ED0-4F88-A916-4261A4375168/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/035B9DB2-A641-49CA-AA52-FCF170327595/192.168.1.19/datalus/weiyu/projects/genome/nf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0444EC26-B753-7341-A23B-9A7B786A6635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3847261B-D764-1344-B684-A5D80F529D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="3140" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
+    <workbookView xWindow="11800" yWindow="3160" windowWidth="21960" windowHeight="17860" xr2:uid="{80E7688E-3C92-F248-929C-B53449277935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="432">
   <si>
     <t>T</t>
   </si>
@@ -924,60 +924,6 @@
     <t>Turartu</t>
   </si>
   <si>
-    <t>arinalrfor</t>
-  </si>
-  <si>
-    <t>cadenza</t>
-  </si>
-  <si>
-    <t>claire</t>
-  </si>
-  <si>
-    <t>jagger</t>
-  </si>
-  <si>
-    <t>julius</t>
-  </si>
-  <si>
-    <t>lancer</t>
-  </si>
-  <si>
-    <t>landmark</t>
-  </si>
-  <si>
-    <t>mace</t>
-  </si>
-  <si>
-    <t>mattis</t>
-  </si>
-  <si>
-    <t>norin61</t>
-  </si>
-  <si>
-    <t>paragon</t>
-  </si>
-  <si>
-    <t>robigus</t>
-  </si>
-  <si>
-    <t>stanley</t>
-  </si>
-  <si>
-    <t>weebil</t>
-  </si>
-  <si>
-    <t>dicoccoides</t>
-  </si>
-  <si>
-    <t>spelta</t>
-  </si>
-  <si>
-    <t>turgidum</t>
-  </si>
-  <si>
-    <t>urartu</t>
-  </si>
-  <si>
     <t>EIv1.1</t>
   </si>
   <si>
@@ -1272,12 +1218,6 @@
     <t>Taz</t>
   </si>
   <si>
-    <t>raw_Atauschii/raw_AS60/combine_Ta_genome.fa.gz</t>
-  </si>
-  <si>
-    <t>raw_Atauschii/raw_AS60/combine_Ta_genome.gff3.gz</t>
-  </si>
-  <si>
     <t>raw_Atauschii/raw_AS60/AS60.final.fasta.gz</t>
   </si>
   <si>
@@ -1297,6 +1237,99 @@
   </si>
   <si>
     <t>TaAB</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>Tt</t>
+  </si>
+  <si>
+    <t>Taa</t>
+  </si>
+  <si>
+    <t>Taj</t>
+  </si>
+  <si>
+    <t>Tal</t>
+  </si>
+  <si>
+    <t>Tam</t>
+  </si>
+  <si>
+    <t>Tan</t>
+  </si>
+  <si>
+    <t>Tas</t>
+  </si>
+  <si>
+    <t>Ts</t>
+  </si>
+  <si>
+    <t>Tac</t>
+  </si>
+  <si>
+    <t>Tap</t>
+  </si>
+  <si>
+    <t>Tar</t>
+  </si>
+  <si>
+    <t>Taw</t>
+  </si>
+  <si>
+    <t>Tu</t>
+  </si>
+  <si>
+    <t>TaaD</t>
+  </si>
+  <si>
+    <t>TajD</t>
+  </si>
+  <si>
+    <t>TalD</t>
+  </si>
+  <si>
+    <t>TamD</t>
+  </si>
+  <si>
+    <t>TanD</t>
+  </si>
+  <si>
+    <t>TasD</t>
+  </si>
+  <si>
+    <t>TsD</t>
+  </si>
+  <si>
+    <t>TaA</t>
+  </si>
+  <si>
+    <t>TsA</t>
+  </si>
+  <si>
+    <t>TdA</t>
+  </si>
+  <si>
+    <t>TtA</t>
+  </si>
+  <si>
+    <t>TaB</t>
+  </si>
+  <si>
+    <t>TsB</t>
+  </si>
+  <si>
+    <t>TdB</t>
+  </si>
+  <si>
+    <t>TtB</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_z.fa.gz</t>
+  </si>
+  <si>
+    <t>raw_wheat/Taestivum_z.gff.gz</t>
   </si>
 </sst>
 </file>
@@ -1865,10 +1898,10 @@
   <dimension ref="A1:Z104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1893,7 +1926,7 @@
         <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>156</v>
@@ -2718,10 +2751,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>218</v>
@@ -2767,10 +2800,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>159</v>
@@ -2958,7 +2991,7 @@
         <v>257</v>
       </c>
       <c r="B21" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>256</v>
@@ -3020,13 +3053,13 @@
         <v>254</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>66</v>
@@ -3083,16 +3116,16 @@
     </row>
     <row r="23" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
@@ -3100,10 +3133,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>159</v>
@@ -3141,16 +3174,16 @@
     </row>
     <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
@@ -3158,10 +3191,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>159</v>
@@ -3199,16 +3232,16 @@
     </row>
     <row r="25" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>
@@ -3216,10 +3249,10 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>159</v>
@@ -3257,16 +3290,16 @@
     </row>
     <row r="26" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
@@ -3274,10 +3307,10 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>159</v>
@@ -3318,13 +3351,13 @@
         <v>292</v>
       </c>
       <c r="B27" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>310</v>
+        <v>401</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>66</v>
@@ -3333,7 +3366,7 @@
         <v>50</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3363,13 +3396,13 @@
         <v>294</v>
       </c>
       <c r="B28" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>276</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>312</v>
+        <v>402</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>66</v>
@@ -3378,7 +3411,7 @@
         <v>50</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3411,14 +3444,16 @@
     </row>
     <row r="29" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="B29" t="s">
-        <v>321</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>6</v>
@@ -3426,10 +3461,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>159</v>
@@ -3472,7 +3507,7 @@
         <v>249</v>
       </c>
       <c r="B30" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>250</v>
@@ -3538,13 +3573,13 @@
         <v>278</v>
       </c>
       <c r="B31" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>296</v>
+        <v>403</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>66</v>
@@ -3553,7 +3588,7 @@
         <v>50</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3583,13 +3618,13 @@
         <v>281</v>
       </c>
       <c r="B32" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>299</v>
+        <v>404</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>66</v>
@@ -3598,7 +3633,7 @@
         <v>50</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -3628,13 +3663,13 @@
         <v>282</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>300</v>
+        <v>404</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>66</v>
@@ -3643,7 +3678,7 @@
         <v>50</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3673,13 +3708,13 @@
         <v>283</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>265</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>301</v>
+        <v>405</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>66</v>
@@ -3688,7 +3723,7 @@
         <v>50</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3718,13 +3753,13 @@
         <v>284</v>
       </c>
       <c r="B35" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>302</v>
+        <v>405</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>66</v>
@@ -3733,7 +3768,7 @@
         <v>50</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -3763,13 +3798,13 @@
         <v>285</v>
       </c>
       <c r="B36" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>303</v>
+        <v>406</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>66</v>
@@ -3778,7 +3813,7 @@
         <v>50</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -3808,13 +3843,13 @@
         <v>286</v>
       </c>
       <c r="B37" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>268</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>304</v>
+        <v>406</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>66</v>
@@ -3823,7 +3858,7 @@
         <v>50</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3853,13 +3888,13 @@
         <v>287</v>
       </c>
       <c r="B38" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>269</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>305</v>
+        <v>407</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>66</v>
@@ -3868,7 +3903,7 @@
         <v>50</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -3898,13 +3933,13 @@
         <v>290</v>
       </c>
       <c r="B39" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>272</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>308</v>
+        <v>408</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>66</v>
@@ -3913,7 +3948,7 @@
         <v>50</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -3940,16 +3975,16 @@
     </row>
     <row r="40" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B40" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>6</v>
@@ -3957,10 +3992,10 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>159</v>
@@ -4003,13 +4038,13 @@
         <v>293</v>
       </c>
       <c r="B41" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>275</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>311</v>
+        <v>409</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>66</v>
@@ -4018,7 +4053,7 @@
         <v>50</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -4048,13 +4083,13 @@
         <v>279</v>
       </c>
       <c r="B42" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>261</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>66</v>
@@ -4063,7 +4098,7 @@
         <v>50</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -4093,13 +4128,13 @@
         <v>280</v>
       </c>
       <c r="B43" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>262</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>298</v>
+        <v>410</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>66</v>
@@ -4108,7 +4143,7 @@
         <v>50</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -4138,13 +4173,13 @@
         <v>288</v>
       </c>
       <c r="B44" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>306</v>
+        <v>411</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>66</v>
@@ -4153,7 +4188,7 @@
         <v>50</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -4183,13 +4218,13 @@
         <v>289</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>271</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>307</v>
+        <v>412</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>66</v>
@@ -4198,7 +4233,7 @@
         <v>50</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -4228,13 +4263,13 @@
         <v>291</v>
       </c>
       <c r="B46" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>273</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>309</v>
+        <v>413</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>66</v>
@@ -4243,7 +4278,7 @@
         <v>50</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -4273,13 +4308,13 @@
         <v>295</v>
       </c>
       <c r="B47" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>313</v>
+        <v>414</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>66</v>
@@ -4288,7 +4323,7 @@
         <v>50</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -4315,16 +4350,16 @@
     </row>
     <row r="48" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="B48" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>6</v>
@@ -4332,10 +4367,10 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>159</v>
@@ -4345,7 +4380,7 @@
         <v>1000</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>0</v>
@@ -4376,16 +4411,16 @@
     </row>
     <row r="49" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>6</v>
@@ -4393,10 +4428,10 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>159</v>
@@ -4440,16 +4475,16 @@
     </row>
     <row r="50" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B50" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
@@ -4457,10 +4492,10 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>159</v>
@@ -4488,16 +4523,16 @@
     </row>
     <row r="51" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>299</v>
+        <v>416</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>6</v>
@@ -4505,10 +4540,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>159</v>
@@ -4536,16 +4571,16 @@
     </row>
     <row r="52" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="B52" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>300</v>
+        <v>416</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
@@ -4553,10 +4588,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>159</v>
@@ -4584,16 +4619,16 @@
     </row>
     <row r="53" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="B53" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>265</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>301</v>
+        <v>417</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
@@ -4601,10 +4636,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>159</v>
@@ -4632,16 +4667,16 @@
     </row>
     <row r="54" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B54" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>302</v>
+        <v>417</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>6</v>
@@ -4649,10 +4684,10 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>159</v>
@@ -4680,16 +4715,16 @@
     </row>
     <row r="55" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>303</v>
+        <v>418</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>6</v>
@@ -4697,10 +4732,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>159</v>
@@ -4728,16 +4763,16 @@
     </row>
     <row r="56" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>268</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>304</v>
+        <v>418</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
@@ -4745,10 +4780,10 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>159</v>
@@ -4776,16 +4811,16 @@
     </row>
     <row r="57" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="B57" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>269</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>305</v>
+        <v>419</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>6</v>
@@ -4793,10 +4828,10 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>159</v>
@@ -4824,16 +4859,16 @@
     </row>
     <row r="58" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>272</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>308</v>
+        <v>420</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>6</v>
@@ -4841,10 +4876,10 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>159</v>
@@ -4872,16 +4907,16 @@
     </row>
     <row r="59" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>275</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
@@ -4889,10 +4924,10 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>159</v>
@@ -4920,16 +4955,16 @@
     </row>
     <row r="60" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B60" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>251</v>
+        <v>422</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>6</v>
@@ -4937,10 +4972,10 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>159</v>
@@ -4976,16 +5011,16 @@
     </row>
     <row r="61" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="B61" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>275</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>311</v>
+        <v>423</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>6</v>
@@ -4993,10 +5028,10 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>159</v>
@@ -5024,16 +5059,16 @@
     </row>
     <row r="62" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>310</v>
+        <v>424</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>6</v>
@@ -5041,10 +5076,10 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>159</v>
@@ -5072,16 +5107,16 @@
     </row>
     <row r="63" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B63" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>276</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>6</v>
@@ -5089,10 +5124,10 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>159</v>
@@ -5120,16 +5155,16 @@
     </row>
     <row r="64" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>251</v>
+        <v>426</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>6</v>
@@ -5137,10 +5172,10 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>159</v>
@@ -5176,16 +5211,16 @@
     </row>
     <row r="65" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>275</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>311</v>
+        <v>427</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>6</v>
@@ -5193,10 +5228,10 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>159</v>
@@ -5224,16 +5259,16 @@
     </row>
     <row r="66" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>310</v>
+        <v>428</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>6</v>
@@ -5241,10 +5276,10 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>159</v>
@@ -5272,16 +5307,16 @@
     </row>
     <row r="67" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>276</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>312</v>
+        <v>429</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>6</v>
@@ -5289,10 +5324,10 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>159</v>
@@ -5393,7 +5428,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>66</v>
@@ -5465,7 +5500,7 @@
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>52</v>
